--- a/asset/Learn/ITA-Server_distrubuted_HA_Configuration_Installation_Manual.xlsx
+++ b/asset/Learn/ITA-Server_distrubuted_HA_Configuration_Installation_Manual.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" tabRatio="752" firstSheet="7" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9090" tabRatio="752"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="26" r:id="rId1"/>
@@ -20,12 +20,12 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'HA Construction (Ansible Tower)'!$B$13:$M$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'HA Construction (Ansible)'!$B$12:$M$62</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'HA Construction (backyard)'!$B$12:$M$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'HA Construction (backyard)'!$B$12:$M$78</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'HA Construction (Cobbler)'!$B$12:$M$48</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'HA Construction (Terraform)'!$B$12:$M$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'HA Construction (Web・AP)'!$B$12:$M$87</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'HA Construction(DBMS)'!$B$11:$M$45</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'HA Construction (backyard)'!$A$1:$M$76</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'HA Construction (backyard)'!$A$1:$M$78</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'HA Construction (External Stor)'!$A$1:$M$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'HA Construction (Web・AP)'!$A$1:$M$87</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'HA Construction(DBMS)'!$A$1:$M$45</definedName>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="453">
   <si>
     <t>№</t>
     <phoneticPr fontId="2"/>
@@ -7398,6 +7398,28 @@
       </rPr>
       <t>.service /usr/lib/systemd/system/.</t>
     </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Install the following packages
+【For CentOS7, RHEL7】
+MariaDB
+【For CentOS8, RHEL8】
+mariadb
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>For online environments, use the following command to activate respositories
+【For CentOS7, RHEL7】
+curl -sS https://downloads.mariadb.com/MariaDB/mariadb_repo_setup | bash
+【For CentOS8, RHEL8】
+No repository will be added
+For online, use the following commands to install.
+【For CentOS7, RHEL7】
+yum install -y MariaDB
+【For CentOS8, RHEL8】
+yum install -y mariadb</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -8264,7 +8286,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="272">
+  <cellXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -8754,6 +8776,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -8841,134 +8878,170 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -8979,47 +9052,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -9027,33 +9085,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -9062,24 +9117,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -9964,9 +10001,7 @@
   </sheetPr>
   <dimension ref="B71:AB123"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A94" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D130" sqref="D130"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="55" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -10035,22 +10070,22 @@
       <c r="J73" s="98"/>
       <c r="K73" s="98"/>
       <c r="L73" s="98"/>
-      <c r="M73" s="163"/>
-      <c r="N73" s="164"/>
-      <c r="O73" s="164"/>
-      <c r="P73" s="164"/>
-      <c r="Q73" s="164"/>
-      <c r="R73" s="164"/>
-      <c r="S73" s="164"/>
-      <c r="T73" s="164"/>
-      <c r="U73" s="163"/>
-      <c r="V73" s="164"/>
-      <c r="W73" s="164"/>
-      <c r="X73" s="164"/>
-      <c r="Y73" s="164"/>
-      <c r="Z73" s="164"/>
-      <c r="AA73" s="164"/>
-      <c r="AB73" s="164"/>
+      <c r="M73" s="168"/>
+      <c r="N73" s="169"/>
+      <c r="O73" s="169"/>
+      <c r="P73" s="169"/>
+      <c r="Q73" s="169"/>
+      <c r="R73" s="169"/>
+      <c r="S73" s="169"/>
+      <c r="T73" s="169"/>
+      <c r="U73" s="168"/>
+      <c r="V73" s="169"/>
+      <c r="W73" s="169"/>
+      <c r="X73" s="169"/>
+      <c r="Y73" s="169"/>
+      <c r="Z73" s="169"/>
+      <c r="AA73" s="169"/>
+      <c r="AB73" s="169"/>
     </row>
     <row r="74" spans="2:28" x14ac:dyDescent="0.15">
       <c r="F74" s="17"/>
@@ -10249,29 +10284,29 @@
     </row>
     <row r="86" spans="2:14" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B86" s="63"/>
-      <c r="C86" s="167" t="s">
+      <c r="C86" s="172" t="s">
         <v>54</v>
       </c>
-      <c r="D86" s="171" t="s">
+      <c r="D86" s="176" t="s">
         <v>55</v>
       </c>
-      <c r="E86" s="165" t="s">
+      <c r="E86" s="170" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="168" t="s">
+      <c r="F86" s="173" t="s">
         <v>58</v>
       </c>
-      <c r="G86" s="169"/>
-      <c r="H86" s="169"/>
-      <c r="I86" s="169"/>
-      <c r="J86" s="170"/>
+      <c r="G86" s="174"/>
+      <c r="H86" s="174"/>
+      <c r="I86" s="174"/>
+      <c r="J86" s="175"/>
       <c r="K86" s="19"/>
     </row>
     <row r="87" spans="2:14" ht="90.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B87" s="63"/>
-      <c r="C87" s="167"/>
-      <c r="D87" s="172"/>
-      <c r="E87" s="166"/>
+      <c r="C87" s="172"/>
+      <c r="D87" s="177"/>
+      <c r="E87" s="171"/>
       <c r="F87" s="93" t="s">
         <v>59</v>
       </c>
@@ -11037,36 +11072,36 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
-      <c r="K2" s="179"/>
-      <c r="L2" s="179"/>
-      <c r="M2" s="179"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="180" t="s">
+      <c r="B3" s="185" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="182"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="186"/>
+      <c r="K3" s="186"/>
+      <c r="L3" s="186"/>
+      <c r="M3" s="187"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B4"/>
@@ -11141,32 +11176,32 @@
       <c r="M8" s="19"/>
     </row>
     <row r="9" spans="2:13" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="186" t="s">
+      <c r="B9" s="191" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="187"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="184" t="s">
+      <c r="C9" s="192"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="189" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="183" t="s">
+      <c r="F9" s="188" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="183"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="183"/>
-      <c r="J9" s="183"/>
-      <c r="K9" s="183"/>
-      <c r="L9" s="183"/>
-      <c r="M9" s="176" t="s">
+      <c r="G9" s="188"/>
+      <c r="H9" s="188"/>
+      <c r="I9" s="188"/>
+      <c r="J9" s="188"/>
+      <c r="K9" s="188"/>
+      <c r="L9" s="188"/>
+      <c r="M9" s="181" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="10" spans="2:13" ht="84.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="189"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="185"/>
+      <c r="B10" s="194"/>
+      <c r="C10" s="195"/>
+      <c r="D10" s="196"/>
+      <c r="E10" s="190"/>
       <c r="F10" s="73" t="s">
         <v>30</v>
       </c>
@@ -11188,14 +11223,14 @@
       <c r="L10" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="M10" s="177"/>
+      <c r="M10" s="182"/>
     </row>
     <row r="11" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="173" t="s">
+      <c r="B11" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="174"/>
-      <c r="D11" s="175"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="180"/>
       <c r="E11" s="57">
         <v>777</v>
       </c>
@@ -11219,11 +11254,11 @@
       </c>
     </row>
     <row r="12" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="173" t="s">
+      <c r="B12" s="178" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="174"/>
-      <c r="D12" s="175"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="180"/>
       <c r="E12" s="57">
         <v>777</v>
       </c>
@@ -11247,11 +11282,11 @@
       </c>
     </row>
     <row r="13" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="173" t="s">
+      <c r="B13" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="C13" s="174"/>
-      <c r="D13" s="175"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="180"/>
       <c r="E13" s="57">
         <v>777</v>
       </c>
@@ -11275,11 +11310,11 @@
       </c>
     </row>
     <row r="14" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="173" t="s">
+      <c r="B14" s="178" t="s">
         <v>74</v>
       </c>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="180"/>
       <c r="E14" s="57">
         <v>777</v>
       </c>
@@ -11301,11 +11336,11 @@
       </c>
     </row>
     <row r="15" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="173" t="s">
+      <c r="B15" s="178" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="174"/>
-      <c r="D15" s="175"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
       <c r="E15" s="57">
         <v>777</v>
       </c>
@@ -11323,11 +11358,11 @@
       </c>
     </row>
     <row r="16" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="173" t="s">
+      <c r="B16" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="174"/>
-      <c r="D16" s="175"/>
+      <c r="C16" s="179"/>
+      <c r="D16" s="180"/>
       <c r="E16" s="57">
         <v>777</v>
       </c>
@@ -11347,11 +11382,11 @@
       </c>
     </row>
     <row r="17" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="173" t="s">
+      <c r="B17" s="178" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="174"/>
-      <c r="D17" s="175"/>
+      <c r="C17" s="179"/>
+      <c r="D17" s="180"/>
       <c r="E17" s="57">
         <v>777</v>
       </c>
@@ -11371,11 +11406,11 @@
       </c>
     </row>
     <row r="18" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="173" t="s">
+      <c r="B18" s="178" t="s">
         <v>78</v>
       </c>
-      <c r="C18" s="174"/>
-      <c r="D18" s="175"/>
+      <c r="C18" s="179"/>
+      <c r="D18" s="180"/>
       <c r="E18" s="57">
         <v>777</v>
       </c>
@@ -11395,11 +11430,11 @@
       </c>
     </row>
     <row r="19" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="173" t="s">
+      <c r="B19" s="178" t="s">
         <v>79</v>
       </c>
-      <c r="C19" s="174"/>
-      <c r="D19" s="175"/>
+      <c r="C19" s="179"/>
+      <c r="D19" s="180"/>
       <c r="E19" s="57">
         <v>755</v>
       </c>
@@ -11419,11 +11454,11 @@
       </c>
     </row>
     <row r="20" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="173" t="s">
+      <c r="B20" s="178" t="s">
         <v>80</v>
       </c>
-      <c r="C20" s="174"/>
-      <c r="D20" s="175"/>
+      <c r="C20" s="179"/>
+      <c r="D20" s="180"/>
       <c r="E20" s="57">
         <v>755</v>
       </c>
@@ -11443,11 +11478,11 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="173" t="s">
+      <c r="B21" s="178" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="174"/>
-      <c r="D21" s="175"/>
+      <c r="C21" s="179"/>
+      <c r="D21" s="180"/>
       <c r="E21" s="57">
         <v>755</v>
       </c>
@@ -11467,11 +11502,11 @@
       </c>
     </row>
     <row r="22" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="173" t="s">
+      <c r="B22" s="178" t="s">
         <v>82</v>
       </c>
-      <c r="C22" s="174"/>
-      <c r="D22" s="175"/>
+      <c r="C22" s="179"/>
+      <c r="D22" s="180"/>
       <c r="E22" s="57">
         <v>755</v>
       </c>
@@ -11491,11 +11526,11 @@
       </c>
     </row>
     <row r="23" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="173" t="s">
+      <c r="B23" s="178" t="s">
         <v>442</v>
       </c>
-      <c r="C23" s="174"/>
-      <c r="D23" s="175"/>
+      <c r="C23" s="179"/>
+      <c r="D23" s="180"/>
       <c r="E23" s="57" t="s">
         <v>440</v>
       </c>
@@ -11513,11 +11548,11 @@
       </c>
     </row>
     <row r="24" spans="2:13" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="173" t="s">
+      <c r="B24" s="178" t="s">
         <v>83</v>
       </c>
-      <c r="C24" s="174"/>
-      <c r="D24" s="175"/>
+      <c r="C24" s="179"/>
+      <c r="D24" s="180"/>
       <c r="E24" s="57">
         <v>778</v>
       </c>
@@ -11536,26 +11571,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="M9:M10"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
     <mergeCell ref="F9:L9"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="B9:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B24:D24"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.43307086614173229" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -11574,9 +11609,9 @@
   <dimension ref="B1:M46"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="11" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="11" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11:J11"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11604,17 +11639,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="19" t="s">
         <v>99</v>
       </c>
@@ -11622,18 +11657,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="180" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA Construction(DBMS)</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="182"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="54" t="s">
         <v>15</v>
       </c>
@@ -11731,32 +11766,32 @@
       <c r="M9" s="19"/>
     </row>
     <row r="10" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="212" t="s">
+      <c r="B10" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="214" t="s">
+      <c r="C10" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="216" t="s">
+      <c r="D10" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="217"/>
-      <c r="F10" s="217"/>
-      <c r="G10" s="217"/>
-      <c r="H10" s="217"/>
-      <c r="I10" s="217"/>
-      <c r="J10" s="217"/>
-      <c r="K10" s="225" t="s">
+      <c r="E10" s="219"/>
+      <c r="F10" s="219"/>
+      <c r="G10" s="219"/>
+      <c r="H10" s="219"/>
+      <c r="I10" s="219"/>
+      <c r="J10" s="219"/>
+      <c r="K10" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="L10" s="226"/>
-      <c r="M10" s="220" t="s">
+      <c r="L10" s="207"/>
+      <c r="M10" s="200" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="11" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="213"/>
-      <c r="C11" s="215"/>
+      <c r="B11" s="215"/>
+      <c r="C11" s="217"/>
       <c r="D11" s="4" t="s">
         <v>88</v>
       </c>
@@ -11778,9 +11813,9 @@
       <c r="J11" s="156" t="s">
         <v>444</v>
       </c>
-      <c r="K11" s="227"/>
-      <c r="L11" s="228"/>
-      <c r="M11" s="221"/>
+      <c r="K11" s="208"/>
+      <c r="L11" s="209"/>
+      <c r="M11" s="201"/>
     </row>
     <row r="12" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B12" s="2"/>
@@ -11794,8 +11829,8 @@
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
-      <c r="K12" s="198"/>
-      <c r="L12" s="199"/>
+      <c r="K12" s="210"/>
+      <c r="L12" s="211"/>
       <c r="M12" s="10"/>
     </row>
     <row r="13" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11803,22 +11838,22 @@
         <f>MAX(B$12:B12)+1</f>
         <v>1</v>
       </c>
-      <c r="C13" s="222" t="s">
+      <c r="C13" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="D13" s="210" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="210"/>
-      <c r="F13" s="210"/>
-      <c r="G13" s="210"/>
-      <c r="H13" s="210"/>
-      <c r="I13" s="210"/>
-      <c r="J13" s="210"/>
-      <c r="K13" s="192" t="s">
+      <c r="D13" s="203" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="203"/>
+      <c r="F13" s="203"/>
+      <c r="G13" s="203"/>
+      <c r="H13" s="203"/>
+      <c r="I13" s="203"/>
+      <c r="J13" s="203"/>
+      <c r="K13" s="212" t="s">
         <v>180</v>
       </c>
-      <c r="L13" s="195"/>
+      <c r="L13" s="213"/>
       <c r="M13" s="16" t="s">
         <v>241</v>
       </c>
@@ -11828,18 +11863,18 @@
         <f>MAX(B$12:B13)+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="218"/>
-      <c r="D14" s="223"/>
-      <c r="E14" s="223"/>
-      <c r="F14" s="223"/>
-      <c r="G14" s="223"/>
-      <c r="H14" s="223"/>
-      <c r="I14" s="223"/>
-      <c r="J14" s="223"/>
-      <c r="K14" s="192" t="s">
+      <c r="C14" s="198"/>
+      <c r="D14" s="204"/>
+      <c r="E14" s="204"/>
+      <c r="F14" s="204"/>
+      <c r="G14" s="204"/>
+      <c r="H14" s="204"/>
+      <c r="I14" s="204"/>
+      <c r="J14" s="204"/>
+      <c r="K14" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="L14" s="195"/>
+      <c r="L14" s="213"/>
       <c r="M14" s="26"/>
     </row>
     <row r="15" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -11847,18 +11882,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="219"/>
-      <c r="D15" s="224"/>
-      <c r="E15" s="224"/>
-      <c r="F15" s="224"/>
-      <c r="G15" s="224"/>
-      <c r="H15" s="224"/>
-      <c r="I15" s="224"/>
-      <c r="J15" s="224"/>
-      <c r="K15" s="192" t="s">
+      <c r="C15" s="199"/>
+      <c r="D15" s="205"/>
+      <c r="E15" s="205"/>
+      <c r="F15" s="205"/>
+      <c r="G15" s="205"/>
+      <c r="H15" s="205"/>
+      <c r="I15" s="205"/>
+      <c r="J15" s="205"/>
+      <c r="K15" s="212" t="s">
         <v>181</v>
       </c>
-      <c r="L15" s="195"/>
+      <c r="L15" s="213"/>
       <c r="M15" s="27"/>
     </row>
     <row r="16" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -11873,8 +11908,8 @@
       <c r="H16" s="7"/>
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
-      <c r="K16" s="198"/>
-      <c r="L16" s="199"/>
+      <c r="K16" s="210"/>
+      <c r="L16" s="211"/>
       <c r="M16" s="8"/>
     </row>
     <row r="17" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11894,10 +11929,10 @@
       <c r="H17" s="71"/>
       <c r="I17" s="71"/>
       <c r="J17" s="25"/>
-      <c r="K17" s="192" t="s">
+      <c r="K17" s="212" t="s">
         <v>95</v>
       </c>
-      <c r="L17" s="195"/>
+      <c r="L17" s="213"/>
       <c r="M17" s="27" t="s">
         <v>189</v>
       </c>
@@ -11914,8 +11949,8 @@
       <c r="H18" s="7"/>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
-      <c r="K18" s="198"/>
-      <c r="L18" s="199"/>
+      <c r="K18" s="210"/>
+      <c r="L18" s="211"/>
       <c r="M18" s="8"/>
     </row>
     <row r="19" spans="2:13" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -11935,95 +11970,95 @@
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="194" t="s">
+      <c r="K19" s="230" t="s">
         <v>182</v>
       </c>
-      <c r="L19" s="195"/>
+      <c r="L19" s="213"/>
       <c r="M19" s="29" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="20" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="204">
+      <c r="B20" s="220">
         <f>MAX(B$10:B19)+1</f>
         <v>6</v>
       </c>
-      <c r="C20" s="207" t="s">
+      <c r="C20" s="197" t="s">
         <v>165</v>
       </c>
-      <c r="D20" s="210" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="210"/>
-      <c r="K20" s="192" t="s">
+      <c r="D20" s="203" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="203"/>
+      <c r="F20" s="203"/>
+      <c r="G20" s="203"/>
+      <c r="H20" s="203"/>
+      <c r="I20" s="203"/>
+      <c r="J20" s="203"/>
+      <c r="K20" s="212" t="s">
         <v>188</v>
       </c>
-      <c r="L20" s="195"/>
-      <c r="M20" s="201"/>
+      <c r="L20" s="213"/>
+      <c r="M20" s="227"/>
     </row>
     <row r="21" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="205">
+      <c r="B21" s="221">
         <f>MAX(B$10:B20)+1</f>
         <v>7</v>
       </c>
-      <c r="C21" s="208"/>
-      <c r="D21" s="205"/>
-      <c r="E21" s="205"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="205"/>
-      <c r="J21" s="205"/>
+      <c r="C21" s="223"/>
+      <c r="D21" s="221"/>
+      <c r="E21" s="221"/>
+      <c r="F21" s="221"/>
+      <c r="G21" s="221"/>
+      <c r="H21" s="221"/>
+      <c r="I21" s="221"/>
+      <c r="J21" s="221"/>
       <c r="K21" s="81" t="s">
         <v>184</v>
       </c>
       <c r="L21" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="M21" s="202"/>
+      <c r="M21" s="228"/>
     </row>
     <row r="22" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="205">
+      <c r="B22" s="221">
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C22" s="208"/>
-      <c r="D22" s="205"/>
-      <c r="E22" s="205"/>
-      <c r="F22" s="205"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="205"/>
-      <c r="J22" s="205"/>
+      <c r="C22" s="223"/>
+      <c r="D22" s="221"/>
+      <c r="E22" s="221"/>
+      <c r="F22" s="221"/>
+      <c r="G22" s="221"/>
+      <c r="H22" s="221"/>
+      <c r="I22" s="221"/>
+      <c r="J22" s="221"/>
       <c r="K22" s="83" t="s">
         <v>186</v>
       </c>
       <c r="L22" s="84" t="s">
         <v>187</v>
       </c>
-      <c r="M22" s="202"/>
+      <c r="M22" s="228"/>
     </row>
     <row r="23" spans="2:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="206">
+      <c r="B23" s="222">
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C23" s="209"/>
-      <c r="D23" s="211"/>
-      <c r="E23" s="211"/>
-      <c r="F23" s="211"/>
-      <c r="G23" s="211"/>
-      <c r="H23" s="211"/>
-      <c r="I23" s="211"/>
-      <c r="J23" s="211"/>
-      <c r="K23" s="194"/>
-      <c r="L23" s="195"/>
-      <c r="M23" s="203"/>
+      <c r="C23" s="224"/>
+      <c r="D23" s="225"/>
+      <c r="E23" s="225"/>
+      <c r="F23" s="225"/>
+      <c r="G23" s="225"/>
+      <c r="H23" s="225"/>
+      <c r="I23" s="225"/>
+      <c r="J23" s="225"/>
+      <c r="K23" s="230"/>
+      <c r="L23" s="213"/>
+      <c r="M23" s="229"/>
     </row>
     <row r="24" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B24" s="1"/>
@@ -12058,10 +12093,10 @@
       <c r="H25" s="71"/>
       <c r="I25" s="71"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="192" t="s">
+      <c r="K25" s="212" t="s">
         <v>183</v>
       </c>
-      <c r="L25" s="193"/>
+      <c r="L25" s="226"/>
       <c r="M25" s="27" t="s">
         <v>191</v>
       </c>
@@ -12071,7 +12106,7 @@
         <f>MAX(B$10:B21)+1</f>
         <v>8</v>
       </c>
-      <c r="C26" s="207" t="s">
+      <c r="C26" s="197" t="s">
         <v>168</v>
       </c>
       <c r="D26" s="71" t="s">
@@ -12083,10 +12118,10 @@
       <c r="H26" s="71"/>
       <c r="I26" s="71"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="192" t="s">
+      <c r="K26" s="212" t="s">
         <v>194</v>
       </c>
-      <c r="L26" s="193"/>
+      <c r="L26" s="226"/>
       <c r="M26" s="27" t="s">
         <v>192</v>
       </c>
@@ -12096,7 +12131,7 @@
         <f>MAX(B$10:B22)+1</f>
         <v>9</v>
       </c>
-      <c r="C27" s="218"/>
+      <c r="C27" s="198"/>
       <c r="D27" s="71" t="s">
         <v>3</v>
       </c>
@@ -12106,10 +12141,10 @@
       <c r="H27" s="71"/>
       <c r="I27" s="71"/>
       <c r="J27" s="25"/>
-      <c r="K27" s="192" t="s">
+      <c r="K27" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="193"/>
+      <c r="L27" s="226"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -12117,7 +12152,7 @@
         <f>MAX(B$10:B23)+1</f>
         <v>10</v>
       </c>
-      <c r="C28" s="219"/>
+      <c r="C28" s="199"/>
       <c r="D28" s="71" t="s">
         <v>3</v>
       </c>
@@ -12127,10 +12162,10 @@
       <c r="H28" s="71"/>
       <c r="I28" s="71"/>
       <c r="J28" s="25"/>
-      <c r="K28" s="192" t="s">
+      <c r="K28" s="212" t="s">
         <v>195</v>
       </c>
-      <c r="L28" s="193"/>
+      <c r="L28" s="226"/>
       <c r="M28" s="27" t="s">
         <v>193</v>
       </c>
@@ -12152,10 +12187,10 @@
       <c r="H29" s="71"/>
       <c r="I29" s="71"/>
       <c r="J29" s="25"/>
-      <c r="K29" s="192" t="s">
+      <c r="K29" s="212" t="s">
         <v>12</v>
       </c>
-      <c r="L29" s="193"/>
+      <c r="L29" s="226"/>
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12175,10 +12210,10 @@
       <c r="H30" s="71"/>
       <c r="I30" s="71"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="192" t="s">
+      <c r="K30" s="212" t="s">
         <v>196</v>
       </c>
-      <c r="L30" s="193"/>
+      <c r="L30" s="226"/>
       <c r="M30" s="123" t="s">
         <v>197</v>
       </c>
@@ -12200,10 +12235,10 @@
       <c r="H31" s="71"/>
       <c r="I31" s="71"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="192" t="s">
+      <c r="K31" s="212" t="s">
         <v>198</v>
       </c>
-      <c r="L31" s="193"/>
+      <c r="L31" s="226"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -12223,10 +12258,10 @@
       <c r="H32" s="35"/>
       <c r="I32" s="35"/>
       <c r="J32" s="34"/>
-      <c r="K32" s="192" t="s">
+      <c r="K32" s="212" t="s">
         <v>13</v>
       </c>
-      <c r="L32" s="193"/>
+      <c r="L32" s="226"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -12241,8 +12276,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="198"/>
-      <c r="L33" s="199"/>
+      <c r="K33" s="210"/>
+      <c r="L33" s="211"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -12262,10 +12297,10 @@
       <c r="H34" s="28"/>
       <c r="I34" s="71"/>
       <c r="J34" s="25"/>
-      <c r="K34" s="200" t="s">
+      <c r="K34" s="233" t="s">
         <v>199</v>
       </c>
-      <c r="L34" s="195"/>
+      <c r="L34" s="213"/>
       <c r="M34" s="29"/>
     </row>
     <row r="35" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12285,10 +12320,10 @@
       <c r="H35" s="28"/>
       <c r="I35" s="71"/>
       <c r="J35" s="25"/>
-      <c r="K35" s="200" t="s">
+      <c r="K35" s="233" t="s">
         <v>200</v>
       </c>
-      <c r="L35" s="195"/>
+      <c r="L35" s="213"/>
       <c r="M35" s="123" t="s">
         <v>197</v>
       </c>
@@ -12310,10 +12345,10 @@
       <c r="H36" s="28"/>
       <c r="I36" s="71"/>
       <c r="J36" s="25"/>
-      <c r="K36" s="200" t="s">
+      <c r="K36" s="233" t="s">
         <v>201</v>
       </c>
-      <c r="L36" s="195"/>
+      <c r="L36" s="213"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
@@ -12333,10 +12368,10 @@
       <c r="H37" s="28"/>
       <c r="I37" s="71"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="200" t="s">
+      <c r="K37" s="233" t="s">
         <v>202</v>
       </c>
-      <c r="L37" s="195"/>
+      <c r="L37" s="213"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -12356,10 +12391,10 @@
       <c r="H38" s="28"/>
       <c r="I38" s="71"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="192" t="s">
+      <c r="K38" s="212" t="s">
         <v>6</v>
       </c>
-      <c r="L38" s="195"/>
+      <c r="L38" s="213"/>
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" ht="37.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -12379,10 +12414,10 @@
       <c r="H39" s="28"/>
       <c r="I39" s="35"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="192" t="s">
+      <c r="K39" s="212" t="s">
         <v>413</v>
       </c>
-      <c r="L39" s="195"/>
+      <c r="L39" s="213"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -12402,10 +12437,10 @@
       <c r="H40" s="71"/>
       <c r="I40" s="157"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="192" t="s">
+      <c r="K40" s="212" t="s">
         <v>414</v>
       </c>
-      <c r="L40" s="193"/>
+      <c r="L40" s="226"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -12425,10 +12460,10 @@
       <c r="H41" s="35"/>
       <c r="I41" s="157"/>
       <c r="J41" s="34"/>
-      <c r="K41" s="192" t="s">
+      <c r="K41" s="212" t="s">
         <v>415</v>
       </c>
-      <c r="L41" s="193"/>
+      <c r="L41" s="226"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -12448,10 +12483,10 @@
       <c r="H42" s="72"/>
       <c r="I42" s="157"/>
       <c r="J42" s="31"/>
-      <c r="K42" s="196" t="s">
+      <c r="K42" s="231" t="s">
         <v>416</v>
       </c>
-      <c r="L42" s="197"/>
+      <c r="L42" s="232"/>
       <c r="M42" s="36"/>
     </row>
     <row r="43" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12473,10 +12508,10 @@
       <c r="H43" s="33"/>
       <c r="I43" s="157"/>
       <c r="J43" s="34"/>
-      <c r="K43" s="192" t="s">
+      <c r="K43" s="212" t="s">
         <v>417</v>
       </c>
-      <c r="L43" s="193"/>
+      <c r="L43" s="226"/>
       <c r="M43" s="36"/>
     </row>
     <row r="44" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -12495,10 +12530,10 @@
         <v>3</v>
       </c>
       <c r="J44" s="25"/>
-      <c r="K44" s="192" t="s">
+      <c r="K44" s="212" t="s">
         <v>418</v>
       </c>
-      <c r="L44" s="193"/>
+      <c r="L44" s="226"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -12518,10 +12553,10 @@
         <v>3</v>
       </c>
       <c r="J45" s="33"/>
-      <c r="K45" s="192" t="s">
+      <c r="K45" s="212" t="s">
         <v>419</v>
       </c>
-      <c r="L45" s="193"/>
+      <c r="L45" s="226"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="41.45" customHeight="1" x14ac:dyDescent="0.15">
@@ -12541,57 +12576,15 @@
       <c r="J46" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="192" t="s">
+      <c r="K46" s="212" t="s">
         <v>419</v>
       </c>
-      <c r="L46" s="193"/>
+      <c r="L46" s="226"/>
       <c r="M46" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="B11:M45"/>
   <mergeCells count="58">
-    <mergeCell ref="C26:C28"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="C13:C15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E13:E15"/>
-    <mergeCell ref="F13:F15"/>
-    <mergeCell ref="G13:G15"/>
-    <mergeCell ref="H13:H15"/>
-    <mergeCell ref="I13:I15"/>
-    <mergeCell ref="J13:J15"/>
-    <mergeCell ref="K10:L11"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:J10"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="D20:D23"/>
-    <mergeCell ref="E20:E23"/>
-    <mergeCell ref="F20:F23"/>
-    <mergeCell ref="G20:G23"/>
-    <mergeCell ref="H20:H23"/>
-    <mergeCell ref="I20:I23"/>
-    <mergeCell ref="J20:J23"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="M20:M23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K27:L27"/>
     <mergeCell ref="K46:L46"/>
     <mergeCell ref="K44:L44"/>
     <mergeCell ref="K45:L45"/>
@@ -12608,6 +12601,48 @@
     <mergeCell ref="K36:L36"/>
     <mergeCell ref="K37:L37"/>
     <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="M20:M23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="D20:D23"/>
+    <mergeCell ref="E20:E23"/>
+    <mergeCell ref="F20:F23"/>
+    <mergeCell ref="G20:G23"/>
+    <mergeCell ref="H20:H23"/>
+    <mergeCell ref="I20:I23"/>
+    <mergeCell ref="J20:J23"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:J10"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="C13:C15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F13:F15"/>
+    <mergeCell ref="G13:G15"/>
+    <mergeCell ref="H13:H15"/>
+    <mergeCell ref="I13:I15"/>
+    <mergeCell ref="J13:J15"/>
+    <mergeCell ref="K10:L11"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -12626,12 +12661,12 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M76"/>
+  <dimension ref="B1:M78"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C55" sqref="C55:L55"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12660,17 +12695,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="19" t="s">
         <v>99</v>
       </c>
@@ -12678,18 +12713,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="180" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA Construction (backyard)</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="182"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="55" t="s">
         <v>405</v>
       </c>
@@ -12803,32 +12838,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="216" t="s">
+      <c r="D11" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="225" t="s">
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="226"/>
-      <c r="M11" s="220" t="s">
+      <c r="L11" s="207"/>
+      <c r="M11" s="200" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="213"/>
-      <c r="C12" s="215"/>
+      <c r="B12" s="215"/>
+      <c r="C12" s="217"/>
       <c r="D12" s="4" t="s">
         <v>88</v>
       </c>
@@ -12850,9 +12885,9 @@
       <c r="J12" s="156" t="s">
         <v>444</v>
       </c>
-      <c r="K12" s="227"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="221"/>
+      <c r="K12" s="208"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="201"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -12866,8 +12901,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="198"/>
-      <c r="L13" s="199"/>
+      <c r="K13" s="210"/>
+      <c r="L13" s="211"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -12875,22 +12910,22 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="222" t="s">
+      <c r="C14" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="210" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="210"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="210"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="192" t="s">
+      <c r="D14" s="203" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="212" t="s">
         <v>180</v>
       </c>
-      <c r="L14" s="195"/>
+      <c r="L14" s="213"/>
       <c r="M14" s="16" t="s">
         <v>241</v>
       </c>
@@ -12900,18 +12935,18 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="218"/>
-      <c r="D15" s="223"/>
-      <c r="E15" s="223"/>
-      <c r="F15" s="223"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="223"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="192" t="s">
+      <c r="C15" s="198"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="204"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="195"/>
+      <c r="L15" s="213"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -12919,18 +12954,18 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="219"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="224"/>
-      <c r="I16" s="224"/>
-      <c r="J16" s="224"/>
-      <c r="K16" s="192" t="s">
+      <c r="C16" s="199"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="212" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="195"/>
+      <c r="L16" s="213"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -12966,87 +13001,78 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="192" t="s">
+      <c r="K18" s="212" t="s">
         <v>229</v>
       </c>
-      <c r="L18" s="193"/>
+      <c r="L18" s="226"/>
       <c r="M18" s="27" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="19" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B19" s="1"/>
       <c r="C19" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
+        <v>377</v>
+      </c>
+      <c r="D19" s="166"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="163"/>
+      <c r="L19" s="163"/>
       <c r="M19" s="8"/>
     </row>
-    <row r="20" spans="2:13" ht="189" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="1">
         <f>MAX(B$11:B19)+1</f>
         <v>5</v>
       </c>
-      <c r="C20" s="139" t="s">
-        <v>101</v>
-      </c>
-      <c r="D20" s="24" t="s">
+      <c r="C20" s="165" t="s">
+        <v>160</v>
+      </c>
+      <c r="D20" s="164" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
+      <c r="H20" s="164"/>
+      <c r="I20" s="164"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="192" t="s">
-        <v>230</v>
-      </c>
-      <c r="L20" s="195"/>
-      <c r="M20" s="27" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B21" s="1">
-        <f>MAX(B$11:B20)+1</f>
-        <v>6</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="25"/>
-      <c r="K21" s="192" t="s">
-        <v>231</v>
-      </c>
-      <c r="L21" s="195"/>
-      <c r="M21" s="27" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K20" s="212" t="s">
+        <v>451</v>
+      </c>
+      <c r="L20" s="226"/>
+      <c r="M20" s="167" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="1"/>
+      <c r="C21" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="8"/>
+    </row>
+    <row r="22" spans="2:13" ht="189" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1">
         <f>MAX(B$11:B21)+1</f>
-        <v>7</v>
-      </c>
-      <c r="C22" s="23" t="s">
-        <v>203</v>
+        <v>6</v>
+      </c>
+      <c r="C22" s="139" t="s">
+        <v>101</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>3</v>
@@ -13057,482 +13083,486 @@
       <c r="H22" s="24"/>
       <c r="I22" s="24"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="192" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="195"/>
-      <c r="M22" s="27"/>
-    </row>
-    <row r="23" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K22" s="212" t="s">
+        <v>230</v>
+      </c>
+      <c r="L22" s="213"/>
+      <c r="M22" s="27" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
       <c r="B23" s="1">
         <f>MAX(B$11:B22)+1</f>
-        <v>8</v>
-      </c>
-      <c r="C23" s="121" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="D23" s="24" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="122"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="192" t="s">
-        <v>232</v>
-      </c>
-      <c r="L23" s="195"/>
+      <c r="K23" s="212" t="s">
+        <v>231</v>
+      </c>
+      <c r="L23" s="213"/>
       <c r="M23" s="27" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="1">
         <f>MAX(B$11:B23)+1</f>
-        <v>9</v>
-      </c>
-      <c r="C24" s="222" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="210" t="s">
-        <v>3</v>
-      </c>
-      <c r="E24" s="210"/>
-      <c r="F24" s="210"/>
-      <c r="G24" s="210"/>
-      <c r="H24" s="210"/>
-      <c r="I24" s="210"/>
-      <c r="J24" s="210"/>
-      <c r="K24" s="192" t="s">
-        <v>233</v>
-      </c>
-      <c r="L24" s="195"/>
+        <v>8</v>
+      </c>
+      <c r="C24" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="212" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="213"/>
       <c r="M24" s="27"/>
     </row>
-    <row r="25" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="1">
         <f>MAX(B$11:B24)+1</f>
+        <v>9</v>
+      </c>
+      <c r="C25" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="122"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="212" t="s">
+        <v>232</v>
+      </c>
+      <c r="L25" s="213"/>
+      <c r="M25" s="27" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="1">
+        <f>MAX(B$11:B25)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="218"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="223"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="223"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="223"/>
-      <c r="K25" s="192" t="s">
-        <v>235</v>
-      </c>
-      <c r="L25" s="195"/>
-      <c r="M25" s="27" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B26" s="1"/>
-      <c r="C26" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="198"/>
-      <c r="L26" s="199"/>
-      <c r="M26" s="8"/>
-    </row>
-    <row r="27" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C26" s="202" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="203" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="203"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="203"/>
+      <c r="H26" s="203"/>
+      <c r="I26" s="203"/>
+      <c r="J26" s="203"/>
+      <c r="K26" s="212" t="s">
+        <v>233</v>
+      </c>
+      <c r="L26" s="213"/>
+      <c r="M26" s="27"/>
+    </row>
+    <row r="27" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
       <c r="B27" s="1">
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="25"/>
-      <c r="K27" s="192" t="s">
-        <v>268</v>
-      </c>
-      <c r="L27" s="193"/>
-      <c r="M27" s="27"/>
-    </row>
-    <row r="28" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="1">
-        <f>MAX(B$11:B27)+1</f>
-        <v>12</v>
-      </c>
-      <c r="C28" s="23" t="s">
-        <v>150</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>3</v>
-      </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="192" t="s">
-        <v>267</v>
-      </c>
-      <c r="L28" s="193"/>
-      <c r="M28" s="27"/>
-    </row>
-    <row r="29" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C27" s="198"/>
+      <c r="D27" s="204"/>
+      <c r="E27" s="204"/>
+      <c r="F27" s="204"/>
+      <c r="G27" s="204"/>
+      <c r="H27" s="204"/>
+      <c r="I27" s="204"/>
+      <c r="J27" s="204"/>
+      <c r="K27" s="212" t="s">
+        <v>235</v>
+      </c>
+      <c r="L27" s="213"/>
+      <c r="M27" s="27" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B28" s="1"/>
+      <c r="C28" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="210"/>
+      <c r="L28" s="211"/>
+      <c r="M28" s="8"/>
+    </row>
+    <row r="29" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="1">
         <f>MAX(B$11:B28)+1</f>
+        <v>12</v>
+      </c>
+      <c r="C29" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="24"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="25"/>
+      <c r="K29" s="212" t="s">
+        <v>268</v>
+      </c>
+      <c r="L29" s="226"/>
+      <c r="M29" s="27"/>
+    </row>
+    <row r="30" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="1">
+        <f>MAX(B$11:B29)+1</f>
         <v>13</v>
       </c>
-      <c r="C29" s="27" t="s">
-        <v>151</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="192" t="s">
-        <v>242</v>
-      </c>
-      <c r="L29" s="193"/>
-      <c r="M29" s="27"/>
-    </row>
-    <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B30" s="1"/>
-      <c r="C30" s="12" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="198"/>
-      <c r="L30" s="199"/>
-      <c r="M30" s="8"/>
-    </row>
-    <row r="31" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C30" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="24"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="212" t="s">
+        <v>267</v>
+      </c>
+      <c r="L30" s="226"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="2:13" ht="32.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="1">
         <f>MAX(B$11:B30)+1</f>
         <v>14</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="27" t="s">
+        <v>151</v>
+      </c>
+      <c r="D31" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="35"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="212" t="s">
+        <v>242</v>
+      </c>
+      <c r="L31" s="226"/>
+      <c r="M31" s="27"/>
+    </row>
+    <row r="32" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B32" s="1"/>
+      <c r="C32" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="210"/>
+      <c r="L32" s="211"/>
+      <c r="M32" s="8"/>
+    </row>
+    <row r="33" spans="2:13" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="1">
+        <f>MAX(B$11:B32)+1</f>
+        <v>15</v>
+      </c>
+      <c r="C33" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="28"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="25"/>
-      <c r="K31" s="232" t="s">
+      <c r="D33" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="28"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="237" t="s">
         <v>243</v>
       </c>
-      <c r="L31" s="195"/>
-      <c r="M31" s="123" t="s">
+      <c r="L33" s="213"/>
+      <c r="M33" s="123" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="32" spans="2:13" ht="156" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="1">
-        <f>MAX(B$11:B31)+1</f>
-        <v>15</v>
-      </c>
-      <c r="C32" s="74" t="s">
+    <row r="34" spans="2:13" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="1">
+        <f>MAX(B$11:B33)+1</f>
+        <v>16</v>
+      </c>
+      <c r="C34" s="74" t="s">
         <v>204</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="75"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="200" t="s">
+      <c r="D34" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="25"/>
+      <c r="F34" s="25"/>
+      <c r="G34" s="25"/>
+      <c r="H34" s="28"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="25"/>
+      <c r="K34" s="233" t="s">
         <v>244</v>
       </c>
-      <c r="L32" s="195"/>
-      <c r="M32" s="29"/>
-    </row>
-    <row r="33" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="204">
-        <f>MAX(B$11:B32)+1</f>
-        <v>16</v>
-      </c>
-      <c r="C33" s="222" t="s">
+      <c r="L34" s="213"/>
+      <c r="M34" s="29"/>
+    </row>
+    <row r="35" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="220">
+        <f>MAX(B$11:B34)+1</f>
+        <v>17</v>
+      </c>
+      <c r="C35" s="202" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="210" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="210"/>
-      <c r="F33" s="210"/>
-      <c r="G33" s="210"/>
-      <c r="H33" s="210"/>
-      <c r="I33" s="210"/>
-      <c r="J33" s="210"/>
-      <c r="K33" s="192" t="s">
+      <c r="D35" s="203" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="203"/>
+      <c r="F35" s="203"/>
+      <c r="G35" s="203"/>
+      <c r="H35" s="203"/>
+      <c r="I35" s="203"/>
+      <c r="J35" s="203"/>
+      <c r="K35" s="212" t="s">
         <v>188</v>
       </c>
-      <c r="L33" s="195"/>
-      <c r="M33" s="201"/>
-    </row>
-    <row r="34" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="205"/>
-      <c r="C34" s="208"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="205"/>
-      <c r="F34" s="205"/>
-      <c r="G34" s="205"/>
-      <c r="H34" s="205"/>
-      <c r="I34" s="205"/>
-      <c r="J34" s="205"/>
-      <c r="K34" s="81" t="s">
+      <c r="L35" s="213"/>
+      <c r="M35" s="227"/>
+    </row>
+    <row r="36" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B36" s="221"/>
+      <c r="C36" s="223"/>
+      <c r="D36" s="221"/>
+      <c r="E36" s="221"/>
+      <c r="F36" s="221"/>
+      <c r="G36" s="221"/>
+      <c r="H36" s="221"/>
+      <c r="I36" s="221"/>
+      <c r="J36" s="221"/>
+      <c r="K36" s="81" t="s">
         <v>269</v>
       </c>
-      <c r="L34" s="82" t="s">
+      <c r="L36" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="M34" s="202"/>
-    </row>
-    <row r="35" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="205"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="205"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="205"/>
-      <c r="G35" s="205"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="205"/>
-      <c r="J35" s="205"/>
-      <c r="K35" s="83" t="s">
+      <c r="M36" s="228"/>
+    </row>
+    <row r="37" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="221"/>
+      <c r="C37" s="223"/>
+      <c r="D37" s="221"/>
+      <c r="E37" s="221"/>
+      <c r="F37" s="221"/>
+      <c r="G37" s="221"/>
+      <c r="H37" s="221"/>
+      <c r="I37" s="221"/>
+      <c r="J37" s="221"/>
+      <c r="K37" s="83" t="s">
         <v>245</v>
       </c>
-      <c r="L35" s="87" t="s">
+      <c r="L37" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="M35" s="202"/>
-    </row>
-    <row r="36" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="205"/>
-      <c r="C36" s="208"/>
-      <c r="D36" s="205"/>
-      <c r="E36" s="205"/>
-      <c r="F36" s="205"/>
-      <c r="G36" s="205"/>
-      <c r="H36" s="205"/>
-      <c r="I36" s="205"/>
-      <c r="J36" s="205"/>
-      <c r="K36" s="83" t="s">
+      <c r="M37" s="228"/>
+    </row>
+    <row r="38" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B38" s="221"/>
+      <c r="C38" s="223"/>
+      <c r="D38" s="221"/>
+      <c r="E38" s="221"/>
+      <c r="F38" s="221"/>
+      <c r="G38" s="221"/>
+      <c r="H38" s="221"/>
+      <c r="I38" s="221"/>
+      <c r="J38" s="221"/>
+      <c r="K38" s="83" t="s">
         <v>246</v>
       </c>
-      <c r="L36" s="87" t="s">
+      <c r="L38" s="87" t="s">
         <v>271</v>
       </c>
-      <c r="M36" s="202"/>
-    </row>
-    <row r="37" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="205"/>
-      <c r="C37" s="208"/>
-      <c r="D37" s="205"/>
-      <c r="E37" s="205"/>
-      <c r="F37" s="205"/>
-      <c r="G37" s="205"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="205"/>
-      <c r="J37" s="205"/>
-      <c r="K37" s="83" t="s">
+      <c r="M38" s="228"/>
+    </row>
+    <row r="39" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="221"/>
+      <c r="C39" s="223"/>
+      <c r="D39" s="221"/>
+      <c r="E39" s="221"/>
+      <c r="F39" s="221"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="221"/>
+      <c r="I39" s="221"/>
+      <c r="J39" s="221"/>
+      <c r="K39" s="83" t="s">
         <v>247</v>
       </c>
-      <c r="L37" s="87" t="s">
+      <c r="L39" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="M37" s="202"/>
-    </row>
-    <row r="38" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="205"/>
-      <c r="C38" s="208"/>
-      <c r="D38" s="205"/>
-      <c r="E38" s="205"/>
-      <c r="F38" s="205"/>
-      <c r="G38" s="205"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="205"/>
-      <c r="J38" s="205"/>
-      <c r="K38" s="83" t="s">
+      <c r="M39" s="228"/>
+    </row>
+    <row r="40" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="221"/>
+      <c r="C40" s="223"/>
+      <c r="D40" s="221"/>
+      <c r="E40" s="221"/>
+      <c r="F40" s="221"/>
+      <c r="G40" s="221"/>
+      <c r="H40" s="221"/>
+      <c r="I40" s="221"/>
+      <c r="J40" s="221"/>
+      <c r="K40" s="83" t="s">
         <v>248</v>
       </c>
-      <c r="L38" s="87" t="s">
+      <c r="L40" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="M38" s="202"/>
-    </row>
-    <row r="39" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="205"/>
-      <c r="C39" s="208"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="205"/>
-      <c r="F39" s="205"/>
-      <c r="G39" s="205"/>
-      <c r="H39" s="205"/>
-      <c r="I39" s="205"/>
-      <c r="J39" s="205"/>
-      <c r="K39" s="83" t="s">
+      <c r="M40" s="228"/>
+    </row>
+    <row r="41" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B41" s="221"/>
+      <c r="C41" s="223"/>
+      <c r="D41" s="221"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="221"/>
+      <c r="G41" s="221"/>
+      <c r="H41" s="221"/>
+      <c r="I41" s="221"/>
+      <c r="J41" s="221"/>
+      <c r="K41" s="83" t="s">
         <v>249</v>
       </c>
-      <c r="L39" s="87" t="s">
+      <c r="L41" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="M39" s="202"/>
-    </row>
-    <row r="40" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="205"/>
-      <c r="C40" s="208"/>
-      <c r="D40" s="205"/>
-      <c r="E40" s="205"/>
-      <c r="F40" s="205"/>
-      <c r="G40" s="205"/>
-      <c r="H40" s="205"/>
-      <c r="I40" s="205"/>
-      <c r="J40" s="205"/>
-      <c r="K40" s="83" t="s">
+      <c r="M41" s="228"/>
+    </row>
+    <row r="42" spans="2:13" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B42" s="221"/>
+      <c r="C42" s="223"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="221"/>
+      <c r="G42" s="221"/>
+      <c r="H42" s="221"/>
+      <c r="I42" s="221"/>
+      <c r="J42" s="221"/>
+      <c r="K42" s="83" t="s">
         <v>250</v>
       </c>
-      <c r="L40" s="87" t="s">
+      <c r="L42" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="M40" s="202"/>
-    </row>
-    <row r="41" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="205"/>
-      <c r="C41" s="208"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="205"/>
-      <c r="F41" s="205"/>
-      <c r="G41" s="205"/>
-      <c r="H41" s="205"/>
-      <c r="I41" s="205"/>
-      <c r="J41" s="205"/>
-      <c r="K41" s="83" t="s">
+      <c r="M42" s="228"/>
+    </row>
+    <row r="43" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B43" s="221"/>
+      <c r="C43" s="223"/>
+      <c r="D43" s="221"/>
+      <c r="E43" s="221"/>
+      <c r="F43" s="221"/>
+      <c r="G43" s="221"/>
+      <c r="H43" s="221"/>
+      <c r="I43" s="221"/>
+      <c r="J43" s="221"/>
+      <c r="K43" s="83" t="s">
         <v>251</v>
       </c>
-      <c r="L41" s="87" t="s">
+      <c r="L43" s="87" t="s">
         <v>276</v>
       </c>
-      <c r="M41" s="202"/>
-    </row>
-    <row r="42" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="205"/>
-      <c r="C42" s="208"/>
-      <c r="D42" s="205"/>
-      <c r="E42" s="205"/>
-      <c r="F42" s="205"/>
-      <c r="G42" s="205"/>
-      <c r="H42" s="205"/>
-      <c r="I42" s="205"/>
-      <c r="J42" s="205"/>
-      <c r="K42" s="83" t="s">
+      <c r="M43" s="228"/>
+    </row>
+    <row r="44" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B44" s="221"/>
+      <c r="C44" s="223"/>
+      <c r="D44" s="221"/>
+      <c r="E44" s="221"/>
+      <c r="F44" s="221"/>
+      <c r="G44" s="221"/>
+      <c r="H44" s="221"/>
+      <c r="I44" s="221"/>
+      <c r="J44" s="221"/>
+      <c r="K44" s="83" t="s">
         <v>252</v>
       </c>
-      <c r="L42" s="87" t="s">
+      <c r="L44" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="M42" s="202"/>
-    </row>
-    <row r="43" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="206"/>
-      <c r="C43" s="209"/>
-      <c r="D43" s="211"/>
-      <c r="E43" s="211"/>
-      <c r="F43" s="211"/>
-      <c r="G43" s="211"/>
-      <c r="H43" s="211"/>
-      <c r="I43" s="211"/>
-      <c r="J43" s="211"/>
-      <c r="K43" s="192"/>
-      <c r="L43" s="195"/>
-      <c r="M43" s="203"/>
-    </row>
-    <row r="44" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="1">
-        <f>MAX(B$11:B33)+1</f>
-        <v>17</v>
-      </c>
-      <c r="C44" s="23" t="s">
+      <c r="M44" s="228"/>
+    </row>
+    <row r="45" spans="2:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B45" s="222"/>
+      <c r="C45" s="224"/>
+      <c r="D45" s="225"/>
+      <c r="E45" s="225"/>
+      <c r="F45" s="225"/>
+      <c r="G45" s="225"/>
+      <c r="H45" s="225"/>
+      <c r="I45" s="225"/>
+      <c r="J45" s="225"/>
+      <c r="K45" s="212"/>
+      <c r="L45" s="213"/>
+      <c r="M45" s="229"/>
+    </row>
+    <row r="46" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B46" s="1">
+        <f>MAX(B$11:B35)+1</f>
+        <v>18</v>
+      </c>
+      <c r="C46" s="23" t="s">
         <v>205</v>
-      </c>
-      <c r="D44" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E44" s="25"/>
-      <c r="F44" s="25"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="25"/>
-      <c r="K44" s="192" t="s">
-        <v>278</v>
-      </c>
-      <c r="L44" s="193"/>
-      <c r="M44" s="29"/>
-    </row>
-    <row r="45" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="1">
-        <f>MAX(B$11:B44)+1</f>
-        <v>18</v>
-      </c>
-      <c r="C45" s="23" t="s">
-        <v>206</v>
-      </c>
-      <c r="D45" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E45" s="25"/>
-      <c r="F45" s="25"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="24"/>
-      <c r="J45" s="25"/>
-      <c r="K45" s="192" t="s">
-        <v>279</v>
-      </c>
-      <c r="L45" s="193"/>
-      <c r="M45" s="29"/>
-    </row>
-    <row r="46" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="1">
-        <f>MAX(B$11:B45)+1</f>
-        <v>19</v>
-      </c>
-      <c r="C46" s="23" t="s">
-        <v>207</v>
       </c>
       <c r="D46" s="28" t="s">
         <v>3</v>
@@ -13541,21 +13571,21 @@
       <c r="F46" s="25"/>
       <c r="G46" s="25"/>
       <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
+      <c r="I46" s="24"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="192" t="s">
-        <v>289</v>
-      </c>
-      <c r="L46" s="193"/>
+      <c r="K46" s="212" t="s">
+        <v>278</v>
+      </c>
+      <c r="L46" s="226"/>
       <c r="M46" s="29"/>
     </row>
-    <row r="47" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B47" s="1">
         <f>MAX(B$11:B46)+1</f>
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>119</v>
+        <v>206</v>
       </c>
       <c r="D47" s="28" t="s">
         <v>3</v>
@@ -13564,21 +13594,21 @@
       <c r="F47" s="25"/>
       <c r="G47" s="25"/>
       <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
+      <c r="I47" s="24"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="192" t="s">
-        <v>290</v>
-      </c>
-      <c r="L47" s="193"/>
+      <c r="K47" s="212" t="s">
+        <v>279</v>
+      </c>
+      <c r="L47" s="226"/>
       <c r="M47" s="29"/>
     </row>
-    <row r="48" spans="2:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B48" s="1">
         <f>MAX(B$11:B47)+1</f>
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>120</v>
+        <v>207</v>
       </c>
       <c r="D48" s="28" t="s">
         <v>3</v>
@@ -13589,230 +13619,226 @@
       <c r="H48" s="28"/>
       <c r="I48" s="28"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="192" t="s">
-        <v>291</v>
-      </c>
-      <c r="L48" s="193"/>
+      <c r="K48" s="212" t="s">
+        <v>289</v>
+      </c>
+      <c r="L48" s="226"/>
       <c r="M48" s="29"/>
     </row>
-    <row r="49" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B49" s="1">
-        <f>MAX(B$13:B48)+1</f>
-        <v>22</v>
-      </c>
-      <c r="C49" s="44" t="s">
-        <v>210</v>
-      </c>
-      <c r="D49" s="45" t="s">
+        <f>MAX(B$11:B48)+1</f>
+        <v>21</v>
+      </c>
+      <c r="C49" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="28" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="25"/>
       <c r="F49" s="25"/>
       <c r="G49" s="25"/>
-      <c r="H49" s="45"/>
-      <c r="I49" s="25"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
       <c r="J49" s="25"/>
-      <c r="K49" s="230" t="s">
-        <v>280</v>
-      </c>
-      <c r="L49" s="193"/>
-      <c r="M49" s="46"/>
-    </row>
-    <row r="50" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K49" s="212" t="s">
+        <v>290</v>
+      </c>
+      <c r="L49" s="226"/>
+      <c r="M49" s="29"/>
+    </row>
+    <row r="50" spans="2:13" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B50" s="1">
-        <f>MAX(B$13:B49)+1</f>
-        <v>23</v>
-      </c>
-      <c r="C50" s="44" t="s">
-        <v>208</v>
-      </c>
-      <c r="D50" s="45"/>
-      <c r="E50" s="45" t="s">
-        <v>3</v>
-      </c>
+        <f>MAX(B$11:B49)+1</f>
+        <v>22</v>
+      </c>
+      <c r="C50" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="D50" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E50" s="25"/>
       <c r="F50" s="25"/>
       <c r="G50" s="25"/>
-      <c r="H50" s="45"/>
-      <c r="I50" s="25"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="230" t="s">
-        <v>281</v>
-      </c>
-      <c r="L50" s="231"/>
-      <c r="M50" s="46"/>
-    </row>
-    <row r="51" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K50" s="212" t="s">
+        <v>291</v>
+      </c>
+      <c r="L50" s="226"/>
+      <c r="M50" s="29"/>
+    </row>
+    <row r="51" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B51" s="1">
         <f>MAX(B$13:B50)+1</f>
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" s="44" t="s">
-        <v>209</v>
-      </c>
-      <c r="D51" s="45"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45" t="s">
-        <v>3</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="D51" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="E51" s="25"/>
+      <c r="F51" s="25"/>
       <c r="G51" s="25"/>
       <c r="H51" s="45"/>
       <c r="I51" s="25"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="230" t="s">
-        <v>282</v>
-      </c>
-      <c r="L51" s="231"/>
+      <c r="K51" s="236" t="s">
+        <v>280</v>
+      </c>
+      <c r="L51" s="226"/>
       <c r="M51" s="46"/>
     </row>
-    <row r="52" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B52" s="1">
         <f>MAX(B$13:B51)+1</f>
-        <v>25</v>
-      </c>
-      <c r="C52" s="112" t="s">
-        <v>123</v>
+        <v>24</v>
+      </c>
+      <c r="C52" s="44" t="s">
+        <v>208</v>
       </c>
       <c r="D52" s="45"/>
-      <c r="E52" s="45"/>
+      <c r="E52" s="45" t="s">
+        <v>3</v>
+      </c>
       <c r="F52" s="25"/>
-      <c r="G52" s="45" t="s">
-        <v>3</v>
-      </c>
+      <c r="G52" s="25"/>
       <c r="H52" s="45"/>
       <c r="I52" s="25"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="230" t="s">
-        <v>283</v>
-      </c>
-      <c r="L52" s="231"/>
+      <c r="K52" s="236" t="s">
+        <v>281</v>
+      </c>
+      <c r="L52" s="239"/>
       <c r="M52" s="46"/>
     </row>
-    <row r="53" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B53" s="1">
         <f>MAX(B$13:B52)+1</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C53" s="44" t="s">
-        <v>122</v>
-      </c>
-      <c r="D53" s="113"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="34"/>
-      <c r="H53" s="113" t="s">
-        <v>3</v>
-      </c>
-      <c r="I53" s="34"/>
-      <c r="J53" s="34"/>
-      <c r="K53" s="230" t="s">
-        <v>284</v>
-      </c>
-      <c r="L53" s="231"/>
+        <v>209</v>
+      </c>
+      <c r="D53" s="45"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="G53" s="25"/>
+      <c r="H53" s="45"/>
+      <c r="I53" s="25"/>
+      <c r="J53" s="25"/>
+      <c r="K53" s="236" t="s">
+        <v>282</v>
+      </c>
+      <c r="L53" s="239"/>
       <c r="M53" s="46"/>
     </row>
-    <row r="54" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B54" s="1">
         <f>MAX(B$13:B53)+1</f>
-        <v>27</v>
-      </c>
-      <c r="C54" s="44" t="s">
-        <v>126</v>
+        <v>26</v>
+      </c>
+      <c r="C54" s="112" t="s">
+        <v>123</v>
       </c>
       <c r="D54" s="45"/>
-      <c r="E54" s="25"/>
+      <c r="E54" s="45"/>
       <c r="F54" s="25"/>
-      <c r="G54" s="25"/>
+      <c r="G54" s="45" t="s">
+        <v>3</v>
+      </c>
       <c r="H54" s="45"/>
-      <c r="I54" s="45" t="s">
-        <v>3</v>
-      </c>
+      <c r="I54" s="25"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="230" t="s">
-        <v>285</v>
-      </c>
-      <c r="L54" s="193"/>
+      <c r="K54" s="236" t="s">
+        <v>283</v>
+      </c>
+      <c r="L54" s="239"/>
       <c r="M54" s="46"/>
     </row>
     <row r="55" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B55" s="1">
         <f>MAX(B$13:B54)+1</f>
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C55" s="44" t="s">
-        <v>447</v>
-      </c>
-      <c r="D55" s="45"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="25"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="45"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="45" t="s">
-        <v>3</v>
-      </c>
-      <c r="K55" s="230" t="s">
-        <v>448</v>
-      </c>
-      <c r="L55" s="193"/>
+        <v>122</v>
+      </c>
+      <c r="D55" s="113"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="113" t="s">
+        <v>3</v>
+      </c>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="236" t="s">
+        <v>284</v>
+      </c>
+      <c r="L55" s="239"/>
       <c r="M55" s="46"/>
     </row>
-    <row r="56" spans="2:13" ht="108" x14ac:dyDescent="0.15">
+    <row r="56" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B56" s="1">
         <f>MAX(B$13:B55)+1</f>
-        <v>29</v>
-      </c>
-      <c r="C56" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="D56" s="28" t="s">
-        <v>3</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C56" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="D56" s="45"/>
       <c r="E56" s="25"/>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="24"/>
+      <c r="H56" s="45"/>
+      <c r="I56" s="45" t="s">
+        <v>3</v>
+      </c>
       <c r="J56" s="25"/>
-      <c r="K56" s="192" t="s">
-        <v>295</v>
-      </c>
-      <c r="L56" s="193"/>
-      <c r="M56" s="29" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="57" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K56" s="236" t="s">
+        <v>285</v>
+      </c>
+      <c r="L56" s="226"/>
+      <c r="M56" s="46"/>
+    </row>
+    <row r="57" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B57" s="1">
         <f>MAX(B$13:B56)+1</f>
-        <v>30</v>
-      </c>
-      <c r="C57" s="23" t="s">
-        <v>218</v>
-      </c>
-      <c r="D57" s="28" t="s">
-        <v>3</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C57" s="44" t="s">
+        <v>447</v>
+      </c>
+      <c r="D57" s="45"/>
       <c r="E57" s="25"/>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="25"/>
-      <c r="K57" s="192" t="s">
-        <v>296</v>
-      </c>
-      <c r="L57" s="193"/>
-      <c r="M57" s="29" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="58" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="H57" s="45"/>
+      <c r="I57" s="25"/>
+      <c r="J57" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="K57" s="236" t="s">
+        <v>448</v>
+      </c>
+      <c r="L57" s="226"/>
+      <c r="M57" s="46"/>
+    </row>
+    <row r="58" spans="2:13" ht="108" x14ac:dyDescent="0.15">
       <c r="B58" s="1">
         <f>MAX(B$13:B57)+1</f>
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D58" s="28" t="s">
         <v>3</v>
@@ -13823,37 +13849,46 @@
       <c r="H58" s="28"/>
       <c r="I58" s="24"/>
       <c r="J58" s="25"/>
-      <c r="K58" s="192" t="s">
-        <v>297</v>
-      </c>
-      <c r="L58" s="193"/>
+      <c r="K58" s="212" t="s">
+        <v>295</v>
+      </c>
+      <c r="L58" s="226"/>
       <c r="M58" s="29" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="59" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B59" s="1"/>
-      <c r="C59" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="7"/>
-      <c r="K59" s="198"/>
-      <c r="L59" s="199"/>
-      <c r="M59" s="8"/>
-    </row>
-    <row r="60" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="59" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B59" s="1">
+        <f>MAX(B$13:B58)+1</f>
+        <v>31</v>
+      </c>
+      <c r="C59" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="D59" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="28"/>
+      <c r="I59" s="24"/>
+      <c r="J59" s="25"/>
+      <c r="K59" s="212" t="s">
+        <v>296</v>
+      </c>
+      <c r="L59" s="226"/>
+      <c r="M59" s="29" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B60" s="1">
-        <f>MAX(B$11:B59)+1</f>
+        <f>MAX(B$13:B59)+1</f>
         <v>32</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D60" s="28" t="s">
         <v>3</v>
@@ -13864,287 +13899,289 @@
       <c r="H60" s="28"/>
       <c r="I60" s="24"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="192" t="s">
-        <v>253</v>
-      </c>
-      <c r="L60" s="195"/>
-      <c r="M60" s="29"/>
-    </row>
-    <row r="61" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="1">
-        <f>MAX(B$11:B60)+1</f>
-        <v>33</v>
-      </c>
-      <c r="C61" s="139" t="s">
-        <v>222</v>
-      </c>
-      <c r="D61" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E61" s="25"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="25"/>
-      <c r="H61" s="28"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="25"/>
-      <c r="K61" s="192" t="s">
-        <v>298</v>
-      </c>
-      <c r="L61" s="195"/>
-      <c r="M61" s="29"/>
-    </row>
-    <row r="62" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="K60" s="212" t="s">
+        <v>297</v>
+      </c>
+      <c r="L60" s="226"/>
+      <c r="M60" s="29" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B61" s="1"/>
+      <c r="C61" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="7"/>
+      <c r="I61" s="7"/>
+      <c r="J61" s="7"/>
+      <c r="K61" s="210"/>
+      <c r="L61" s="211"/>
+      <c r="M61" s="8"/>
+    </row>
+    <row r="62" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B62" s="1">
         <f>MAX(B$11:B61)+1</f>
-        <v>34</v>
-      </c>
-      <c r="C62" s="139" t="s">
-        <v>224</v>
-      </c>
-      <c r="D62" s="28"/>
-      <c r="E62" s="28" t="s">
-        <v>3</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C62" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="D62" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E62" s="25"/>
       <c r="F62" s="25"/>
-      <c r="G62" s="28"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="157"/>
-      <c r="K62" s="192" t="s">
-        <v>299</v>
-      </c>
-      <c r="L62" s="229"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="28"/>
+      <c r="I62" s="24"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="212" t="s">
+        <v>253</v>
+      </c>
+      <c r="L62" s="213"/>
       <c r="M62" s="29"/>
     </row>
     <row r="63" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B63" s="1">
         <f>MAX(B$11:B62)+1</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C63" s="139" t="s">
-        <v>225</v>
-      </c>
-      <c r="D63" s="28"/>
+        <v>222</v>
+      </c>
+      <c r="D63" s="28" t="s">
+        <v>3</v>
+      </c>
       <c r="E63" s="25"/>
-      <c r="F63" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="G63" s="28"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="25"/>
-      <c r="J63" s="157"/>
-      <c r="K63" s="192" t="s">
-        <v>300</v>
-      </c>
-      <c r="L63" s="229"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="24"/>
+      <c r="J63" s="25"/>
+      <c r="K63" s="212" t="s">
+        <v>298</v>
+      </c>
+      <c r="L63" s="213"/>
       <c r="M63" s="29"/>
     </row>
     <row r="64" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B64" s="1">
         <f>MAX(B$11:B63)+1</f>
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C64" s="139" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D64" s="28"/>
-      <c r="E64" s="25"/>
+      <c r="E64" s="28" t="s">
+        <v>3</v>
+      </c>
       <c r="F64" s="25"/>
-      <c r="G64" s="28" t="s">
-        <v>3</v>
-      </c>
+      <c r="G64" s="28"/>
       <c r="H64" s="24"/>
       <c r="I64" s="25"/>
       <c r="J64" s="157"/>
-      <c r="K64" s="192" t="s">
-        <v>301</v>
-      </c>
-      <c r="L64" s="229"/>
+      <c r="K64" s="212" t="s">
+        <v>299</v>
+      </c>
+      <c r="L64" s="238"/>
       <c r="M64" s="29"/>
     </row>
     <row r="65" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B65" s="1">
         <f>MAX(B$11:B64)+1</f>
-        <v>37</v>
-      </c>
-      <c r="C65" s="129" t="s">
-        <v>393</v>
+        <v>36</v>
+      </c>
+      <c r="C65" s="139" t="s">
+        <v>225</v>
       </c>
       <c r="D65" s="28"/>
-      <c r="E65" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="F65" s="25"/>
-      <c r="G65" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H65" s="28"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="G65" s="28"/>
+      <c r="H65" s="24"/>
       <c r="I65" s="25"/>
       <c r="J65" s="157"/>
-      <c r="K65" s="192" t="s">
-        <v>302</v>
-      </c>
-      <c r="L65" s="229"/>
+      <c r="K65" s="212" t="s">
+        <v>300</v>
+      </c>
+      <c r="L65" s="238"/>
       <c r="M65" s="29"/>
     </row>
     <row r="66" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B66" s="1">
         <f>MAX(B$11:B65)+1</f>
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C66" s="139" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D66" s="28"/>
       <c r="E66" s="25"/>
       <c r="F66" s="25"/>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28" t="s">
-        <v>3</v>
-      </c>
+      <c r="G66" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H66" s="24"/>
       <c r="I66" s="25"/>
       <c r="J66" s="157"/>
-      <c r="K66" s="192" t="s">
+      <c r="K66" s="212" t="s">
+        <v>301</v>
+      </c>
+      <c r="L66" s="238"/>
+      <c r="M66" s="29"/>
+    </row>
+    <row r="67" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B67" s="1">
+        <f>MAX(B$11:B66)+1</f>
+        <v>38</v>
+      </c>
+      <c r="C67" s="129" t="s">
+        <v>393</v>
+      </c>
+      <c r="D67" s="28"/>
+      <c r="E67" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="F67" s="25"/>
+      <c r="G67" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H67" s="28"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="157"/>
+      <c r="K67" s="212" t="s">
+        <v>302</v>
+      </c>
+      <c r="L67" s="238"/>
+      <c r="M67" s="29"/>
+    </row>
+    <row r="68" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B68" s="1">
+        <f>MAX(B$11:B67)+1</f>
+        <v>39</v>
+      </c>
+      <c r="C68" s="139" t="s">
+        <v>227</v>
+      </c>
+      <c r="D68" s="28"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="I68" s="25"/>
+      <c r="J68" s="157"/>
+      <c r="K68" s="212" t="s">
         <v>303</v>
       </c>
-      <c r="L66" s="229"/>
-      <c r="M66" s="29"/>
-    </row>
-    <row r="67" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="32">
-        <f>MAX(B$11:B66)+1</f>
-        <v>39</v>
-      </c>
-      <c r="C67" s="143" t="s">
-        <v>228</v>
-      </c>
-      <c r="D67" s="33"/>
-      <c r="E67" s="34"/>
-      <c r="F67" s="34"/>
-      <c r="G67" s="33"/>
-      <c r="H67" s="35"/>
-      <c r="I67" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="J67" s="157"/>
-      <c r="K67" s="192" t="s">
-        <v>304</v>
-      </c>
-      <c r="L67" s="229"/>
-      <c r="M67" s="29"/>
-    </row>
-    <row r="68" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="32">
-        <f>MAX(B$11:B67)+1</f>
-        <v>40</v>
-      </c>
-      <c r="C68" s="158" t="s">
-        <v>449</v>
-      </c>
-      <c r="D68" s="157"/>
-      <c r="E68" s="157"/>
-      <c r="F68" s="157"/>
-      <c r="G68" s="157"/>
-      <c r="H68" s="157"/>
-      <c r="I68" s="157"/>
-      <c r="J68" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="K68" s="192" t="s">
-        <v>450</v>
-      </c>
-      <c r="L68" s="229"/>
-      <c r="M68" s="157"/>
-    </row>
-    <row r="69" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="L68" s="238"/>
+      <c r="M68" s="29"/>
+    </row>
+    <row r="69" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B69" s="32">
         <f>MAX(B$11:B68)+1</f>
-        <v>41</v>
-      </c>
-      <c r="C69" s="141" t="s">
-        <v>223</v>
-      </c>
-      <c r="D69" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="30"/>
-      <c r="I69" s="130"/>
-      <c r="J69" s="31"/>
-      <c r="K69" s="233" t="s">
-        <v>11</v>
-      </c>
-      <c r="L69" s="234"/>
-      <c r="M69" s="36"/>
-    </row>
-    <row r="70" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+      <c r="C69" s="143" t="s">
+        <v>228</v>
+      </c>
+      <c r="D69" s="33"/>
+      <c r="E69" s="34"/>
+      <c r="F69" s="34"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="35"/>
+      <c r="I69" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="J69" s="157"/>
+      <c r="K69" s="212" t="s">
+        <v>304</v>
+      </c>
+      <c r="L69" s="238"/>
+      <c r="M69" s="29"/>
+    </row>
+    <row r="70" spans="2:13" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B70" s="32">
         <f>MAX(B$11:B69)+1</f>
+        <v>41</v>
+      </c>
+      <c r="C70" s="158" t="s">
+        <v>449</v>
+      </c>
+      <c r="D70" s="157"/>
+      <c r="E70" s="157"/>
+      <c r="F70" s="157"/>
+      <c r="G70" s="157"/>
+      <c r="H70" s="157"/>
+      <c r="I70" s="157"/>
+      <c r="J70" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="K70" s="212" t="s">
+        <v>450</v>
+      </c>
+      <c r="L70" s="238"/>
+      <c r="M70" s="157"/>
+    </row>
+    <row r="71" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B71" s="32">
+        <f>MAX(B$11:B70)+1</f>
         <v>42</v>
       </c>
-      <c r="C70" s="143" t="s">
-        <v>212</v>
-      </c>
-      <c r="D70" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E70" s="34"/>
-      <c r="F70" s="34"/>
-      <c r="G70" s="34"/>
-      <c r="H70" s="33"/>
-      <c r="I70" s="35"/>
-      <c r="J70" s="34"/>
-      <c r="K70" s="192" t="s">
-        <v>37</v>
-      </c>
-      <c r="L70" s="193"/>
-      <c r="M70" s="29"/>
-    </row>
-    <row r="71" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="B71" s="1"/>
-      <c r="C71" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="D71" s="7"/>
-      <c r="E71" s="7"/>
-      <c r="F71" s="7"/>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
-      <c r="I71" s="7"/>
-      <c r="J71" s="7"/>
-      <c r="K71" s="198"/>
-      <c r="L71" s="199"/>
-      <c r="M71" s="8"/>
-    </row>
-    <row r="72" spans="2:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B72" s="1">
+      <c r="C71" s="141" t="s">
+        <v>223</v>
+      </c>
+      <c r="D71" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="E71" s="31"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="130"/>
+      <c r="J71" s="31"/>
+      <c r="K71" s="234" t="s">
+        <v>11</v>
+      </c>
+      <c r="L71" s="235"/>
+      <c r="M71" s="36"/>
+    </row>
+    <row r="72" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B72" s="32">
         <f>MAX(B$11:B71)+1</f>
         <v>43</v>
       </c>
-      <c r="C72" s="23" t="s">
-        <v>214</v>
-      </c>
-      <c r="D72" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="E72" s="25"/>
-      <c r="F72" s="25"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="24"/>
-      <c r="J72" s="25"/>
-      <c r="K72" s="192" t="s">
-        <v>287</v>
-      </c>
-      <c r="L72" s="195"/>
+      <c r="C72" s="143" t="s">
+        <v>212</v>
+      </c>
+      <c r="D72" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="33"/>
+      <c r="I72" s="35"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="212" t="s">
+        <v>37</v>
+      </c>
+      <c r="L72" s="226"/>
       <c r="M72" s="29"/>
     </row>
     <row r="73" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B73" s="1"/>
       <c r="C73" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
@@ -14153,37 +14190,37 @@
       <c r="H73" s="7"/>
       <c r="I73" s="7"/>
       <c r="J73" s="7"/>
-      <c r="K73" s="198"/>
-      <c r="L73" s="199"/>
+      <c r="K73" s="210"/>
+      <c r="L73" s="211"/>
       <c r="M73" s="8"/>
     </row>
-    <row r="74" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:13" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B74" s="1">
         <f>MAX(B$11:B73)+1</f>
         <v>44</v>
       </c>
-      <c r="C74" s="27" t="s">
-        <v>130</v>
-      </c>
-      <c r="D74" s="33" t="s">
-        <v>3</v>
-      </c>
-      <c r="E74" s="34"/>
-      <c r="F74" s="34"/>
-      <c r="G74" s="34"/>
-      <c r="H74" s="33"/>
-      <c r="I74" s="35"/>
-      <c r="J74" s="34"/>
-      <c r="K74" s="192" t="s">
-        <v>288</v>
-      </c>
-      <c r="L74" s="195"/>
+      <c r="C74" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="D74" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="28"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="25"/>
+      <c r="K74" s="212" t="s">
+        <v>287</v>
+      </c>
+      <c r="L74" s="213"/>
       <c r="M74" s="29"/>
     </row>
     <row r="75" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B75" s="1"/>
-      <c r="C75" s="12" t="s">
-        <v>134</v>
+      <c r="C75" s="14" t="s">
+        <v>215</v>
       </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -14192,93 +14229,92 @@
       <c r="H75" s="7"/>
       <c r="I75" s="7"/>
       <c r="J75" s="7"/>
-      <c r="K75" s="198"/>
-      <c r="L75" s="199"/>
+      <c r="K75" s="210"/>
+      <c r="L75" s="211"/>
       <c r="M75" s="8"/>
     </row>
-    <row r="76" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="B76" s="32">
+    <row r="76" spans="2:13" ht="110.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B76" s="1">
         <f>MAX(B$11:B75)+1</f>
         <v>45</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>134</v>
-      </c>
-      <c r="D76" s="35"/>
+        <v>130</v>
+      </c>
+      <c r="D76" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="34"/>
       <c r="F76" s="34"/>
       <c r="G76" s="34"/>
-      <c r="H76" s="35"/>
+      <c r="H76" s="33"/>
       <c r="I76" s="35"/>
-      <c r="J76" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="K76" s="192" t="s">
+      <c r="J76" s="34"/>
+      <c r="K76" s="212" t="s">
+        <v>288</v>
+      </c>
+      <c r="L76" s="213"/>
+      <c r="M76" s="29"/>
+    </row>
+    <row r="77" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="B77" s="1"/>
+      <c r="C77" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D77" s="7"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="7"/>
+      <c r="I77" s="7"/>
+      <c r="J77" s="7"/>
+      <c r="K77" s="210"/>
+      <c r="L77" s="211"/>
+      <c r="M77" s="8"/>
+    </row>
+    <row r="78" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B78" s="32">
+        <f>MAX(B$11:B77)+1</f>
+        <v>46</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="D78" s="35"/>
+      <c r="F78" s="34"/>
+      <c r="G78" s="34"/>
+      <c r="H78" s="35"/>
+      <c r="I78" s="35"/>
+      <c r="J78" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="K78" s="212" t="s">
         <v>216</v>
       </c>
-      <c r="L76" s="195"/>
-      <c r="M76" s="27" t="s">
+      <c r="L78" s="213"/>
+      <c r="M78" s="27" t="s">
         <v>286</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B12:M76"/>
-  <mergeCells count="86">
+  <autoFilter ref="B12:M78"/>
+  <mergeCells count="87">
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="K57:L57"/>
     <mergeCell ref="K58:L58"/>
     <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="M33:M43"/>
-    <mergeCell ref="B33:B43"/>
-    <mergeCell ref="C33:C43"/>
-    <mergeCell ref="D33:D43"/>
-    <mergeCell ref="E33:E43"/>
-    <mergeCell ref="F33:F43"/>
-    <mergeCell ref="G33:G43"/>
-    <mergeCell ref="H33:H43"/>
-    <mergeCell ref="I33:I43"/>
-    <mergeCell ref="J33:J43"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K66:L66"/>
+    <mergeCell ref="K68:L68"/>
     <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K64:L64"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="K67:L67"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="C14:C16"/>
     <mergeCell ref="D14:D16"/>
@@ -14293,22 +14329,63 @@
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
-    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="K77:L77"/>
+    <mergeCell ref="K78:L78"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="K73:L73"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="M35:M45"/>
+    <mergeCell ref="B35:B45"/>
+    <mergeCell ref="C35:C45"/>
+    <mergeCell ref="D35:D45"/>
+    <mergeCell ref="E35:E45"/>
+    <mergeCell ref="F35:F45"/>
+    <mergeCell ref="G35:G45"/>
+    <mergeCell ref="H35:H45"/>
+    <mergeCell ref="I35:I45"/>
+    <mergeCell ref="J35:J45"/>
+    <mergeCell ref="K35:L35"/>
     <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K64:L64"/>
-    <mergeCell ref="K66:L66"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -14320,9 +14397,9 @@
     <oddFooter>&amp;C【別紙】IT Automation HA構成インストールマニュアル_3_(backyard) &amp;P / &amp;N ページ</oddFooter>
   </headerFooter>
   <rowBreaks count="3" manualBreakCount="3">
-    <brk id="29" max="13" man="1"/>
-    <brk id="52" max="12" man="1"/>
-    <brk id="68" max="12" man="1"/>
+    <brk id="29" max="12" man="1"/>
+    <brk id="56" max="12" man="1"/>
+    <brk id="74" max="12" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>
@@ -14365,17 +14442,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="19" t="s">
         <v>99</v>
       </c>
@@ -14383,18 +14460,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="180" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA Construction (Ansible)</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="182"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="55" t="s">
         <v>405</v>
       </c>
@@ -14508,32 +14585,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="216" t="s">
+      <c r="D11" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="225" t="s">
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="226"/>
-      <c r="M11" s="220" t="s">
+      <c r="L11" s="207"/>
+      <c r="M11" s="200" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="213"/>
-      <c r="C12" s="215"/>
+      <c r="B12" s="215"/>
+      <c r="C12" s="217"/>
       <c r="D12" s="4" t="s">
         <v>88</v>
       </c>
@@ -14555,9 +14632,9 @@
       <c r="J12" s="156" t="s">
         <v>444</v>
       </c>
-      <c r="K12" s="227"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="221"/>
+      <c r="K12" s="208"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="201"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -14571,8 +14648,8 @@
       <c r="H13" s="161"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="199"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="211"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14580,22 +14657,22 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="222" t="s">
+      <c r="C14" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="210"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="238" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14" s="235"/>
-      <c r="I14" s="242"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="192" t="s">
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="241" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="252"/>
+      <c r="I14" s="244"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="212" t="s">
         <v>180</v>
       </c>
-      <c r="L14" s="195"/>
+      <c r="L14" s="213"/>
       <c r="M14" s="16" t="s">
         <v>241</v>
       </c>
@@ -14605,18 +14682,18 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="218"/>
-      <c r="D15" s="223"/>
-      <c r="E15" s="223"/>
-      <c r="F15" s="223"/>
-      <c r="G15" s="239"/>
-      <c r="H15" s="236"/>
-      <c r="I15" s="243"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="192" t="s">
+      <c r="C15" s="198"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="255"/>
+      <c r="H15" s="253"/>
+      <c r="I15" s="250"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="195"/>
+      <c r="L15" s="213"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="36.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -14624,18 +14701,18 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="219"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="240"/>
-      <c r="H16" s="237"/>
-      <c r="I16" s="244"/>
-      <c r="J16" s="224"/>
-      <c r="K16" s="192" t="s">
+      <c r="C16" s="199"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="256"/>
+      <c r="H16" s="254"/>
+      <c r="I16" s="251"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="212" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="195"/>
+      <c r="L16" s="213"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -14671,10 +14748,10 @@
       <c r="H18" s="157"/>
       <c r="I18" s="28"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="192" t="s">
+      <c r="K18" s="212" t="s">
         <v>229</v>
       </c>
-      <c r="L18" s="193"/>
+      <c r="L18" s="226"/>
       <c r="M18" s="143" t="s">
         <v>266</v>
       </c>
@@ -14691,8 +14768,8 @@
       <c r="H19" s="161"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="241"/>
-      <c r="L19" s="199"/>
+      <c r="K19" s="247"/>
+      <c r="L19" s="211"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14712,10 +14789,10 @@
       <c r="H20" s="157"/>
       <c r="I20" s="28"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="245" t="s">
+      <c r="K20" s="240" t="s">
         <v>306</v>
       </c>
-      <c r="L20" s="195"/>
+      <c r="L20" s="213"/>
       <c r="M20" s="27" t="s">
         <v>340</v>
       </c>
@@ -14737,10 +14814,10 @@
       <c r="H21" s="157"/>
       <c r="I21" s="28"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="245" t="s">
+      <c r="K21" s="240" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="195"/>
+      <c r="L21" s="213"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -14755,8 +14832,8 @@
       <c r="H22" s="161"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="199"/>
+      <c r="K22" s="247"/>
+      <c r="L22" s="211"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="175.5" x14ac:dyDescent="0.15">
@@ -14776,10 +14853,10 @@
       <c r="H23" s="157"/>
       <c r="I23" s="28"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="245" t="s">
+      <c r="K23" s="240" t="s">
         <v>255</v>
       </c>
-      <c r="L23" s="195"/>
+      <c r="L23" s="213"/>
       <c r="M23" s="27" t="s">
         <v>341</v>
       </c>
@@ -14801,10 +14878,10 @@
       <c r="H24" s="157"/>
       <c r="I24" s="28"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="245" t="s">
+      <c r="K24" s="240" t="s">
         <v>256</v>
       </c>
-      <c r="L24" s="193"/>
+      <c r="L24" s="226"/>
       <c r="M24" s="27" t="s">
         <v>342</v>
       </c>
@@ -14826,10 +14903,10 @@
       <c r="H25" s="157"/>
       <c r="I25" s="28"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="245" t="s">
+      <c r="K25" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="193"/>
+      <c r="L25" s="226"/>
       <c r="M25" s="27"/>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -14849,10 +14926,10 @@
       <c r="H26" s="157"/>
       <c r="I26" s="28"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="192" t="s">
+      <c r="K26" s="212" t="s">
         <v>232</v>
       </c>
-      <c r="L26" s="195"/>
+      <c r="L26" s="213"/>
       <c r="M26" s="27" t="s">
         <v>343</v>
       </c>
@@ -14862,22 +14939,22 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="222" t="s">
+      <c r="C27" s="202" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="210"/>
-      <c r="E27" s="210"/>
-      <c r="F27" s="210"/>
-      <c r="G27" s="238" t="s">
+      <c r="D27" s="203"/>
+      <c r="E27" s="203"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="235"/>
-      <c r="I27" s="242"/>
-      <c r="J27" s="210"/>
-      <c r="K27" s="245" t="s">
+      <c r="H27" s="252"/>
+      <c r="I27" s="244"/>
+      <c r="J27" s="203"/>
+      <c r="K27" s="240" t="s">
         <v>257</v>
       </c>
-      <c r="L27" s="193"/>
+      <c r="L27" s="226"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -14885,18 +14962,18 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="218"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="239"/>
-      <c r="H28" s="237"/>
-      <c r="I28" s="243"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="245" t="s">
+      <c r="C28" s="198"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="255"/>
+      <c r="H28" s="254"/>
+      <c r="I28" s="250"/>
+      <c r="J28" s="204"/>
+      <c r="K28" s="240" t="s">
         <v>258</v>
       </c>
-      <c r="L28" s="193"/>
+      <c r="L28" s="226"/>
       <c r="M28" s="27" t="s">
         <v>344</v>
       </c>
@@ -14913,8 +14990,8 @@
       <c r="H29" s="161"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="241"/>
-      <c r="L29" s="199"/>
+      <c r="K29" s="247"/>
+      <c r="L29" s="211"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14934,10 +15011,10 @@
       <c r="H30" s="157"/>
       <c r="I30" s="28"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="192" t="s">
+      <c r="K30" s="212" t="s">
         <v>268</v>
       </c>
-      <c r="L30" s="193"/>
+      <c r="L30" s="226"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -14957,10 +15034,10 @@
       <c r="H31" s="157"/>
       <c r="I31" s="28"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="192" t="s">
+      <c r="K31" s="212" t="s">
         <v>267</v>
       </c>
-      <c r="L31" s="193"/>
+      <c r="L31" s="226"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -14980,10 +15057,10 @@
       <c r="H32" s="157"/>
       <c r="I32" s="28"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="192" t="s">
+      <c r="K32" s="212" t="s">
         <v>242</v>
       </c>
-      <c r="L32" s="193"/>
+      <c r="L32" s="226"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -14998,8 +15075,8 @@
       <c r="H33" s="161"/>
       <c r="I33" s="154"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="241"/>
-      <c r="L33" s="199"/>
+      <c r="K33" s="247"/>
+      <c r="L33" s="211"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="82.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15019,10 +15096,10 @@
       <c r="H34" s="157"/>
       <c r="I34" s="33"/>
       <c r="J34" s="34"/>
-      <c r="K34" s="245" t="s">
+      <c r="K34" s="240" t="s">
         <v>337</v>
       </c>
-      <c r="L34" s="195"/>
+      <c r="L34" s="213"/>
       <c r="M34" s="29" t="s">
         <v>336</v>
       </c>
@@ -15044,10 +15121,10 @@
       <c r="H35" s="157"/>
       <c r="I35" s="33"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="245" t="s">
+      <c r="K35" s="240" t="s">
         <v>338</v>
       </c>
-      <c r="L35" s="195"/>
+      <c r="L35" s="213"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15067,10 +15144,10 @@
       <c r="H36" s="157"/>
       <c r="I36" s="33"/>
       <c r="J36" s="34"/>
-      <c r="K36" s="246" t="s">
+      <c r="K36" s="248" t="s">
         <v>339</v>
       </c>
-      <c r="L36" s="247"/>
+      <c r="L36" s="249"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -15085,8 +15162,8 @@
       <c r="H37" s="161"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="199"/>
+      <c r="K37" s="247"/>
+      <c r="L37" s="211"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -15106,10 +15183,10 @@
       <c r="H38" s="157"/>
       <c r="I38" s="28"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="245" t="s">
+      <c r="K38" s="240" t="s">
         <v>335</v>
       </c>
-      <c r="L38" s="195"/>
+      <c r="L38" s="213"/>
       <c r="M38" s="123" t="s">
         <v>239</v>
       </c>
@@ -15131,84 +15208,84 @@
       <c r="H39" s="157"/>
       <c r="I39" s="28"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="245" t="s">
+      <c r="K39" s="240" t="s">
         <v>334</v>
       </c>
-      <c r="L39" s="195"/>
+      <c r="L39" s="213"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="204">
+      <c r="B40" s="220">
         <f>MAX(B$11:B39)+1</f>
         <v>21</v>
       </c>
-      <c r="C40" s="222" t="s">
+      <c r="C40" s="202" t="s">
         <v>310</v>
       </c>
-      <c r="D40" s="210"/>
-      <c r="E40" s="210"/>
-      <c r="F40" s="210"/>
-      <c r="G40" s="238" t="s">
+      <c r="D40" s="203"/>
+      <c r="E40" s="203"/>
+      <c r="F40" s="203"/>
+      <c r="G40" s="241" t="s">
         <v>16</v>
       </c>
-      <c r="H40" s="235"/>
-      <c r="I40" s="242"/>
-      <c r="J40" s="210"/>
-      <c r="K40" s="192" t="s">
+      <c r="H40" s="252"/>
+      <c r="I40" s="244"/>
+      <c r="J40" s="203"/>
+      <c r="K40" s="212" t="s">
         <v>347</v>
       </c>
-      <c r="L40" s="195"/>
-      <c r="M40" s="201"/>
+      <c r="L40" s="213"/>
+      <c r="M40" s="227"/>
     </row>
     <row r="41" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="205"/>
-      <c r="C41" s="218"/>
-      <c r="D41" s="205"/>
-      <c r="E41" s="205"/>
-      <c r="F41" s="205"/>
-      <c r="G41" s="248"/>
-      <c r="H41" s="236"/>
-      <c r="I41" s="250"/>
-      <c r="J41" s="205"/>
+      <c r="B41" s="221"/>
+      <c r="C41" s="198"/>
+      <c r="D41" s="221"/>
+      <c r="E41" s="221"/>
+      <c r="F41" s="221"/>
+      <c r="G41" s="242"/>
+      <c r="H41" s="253"/>
+      <c r="I41" s="245"/>
+      <c r="J41" s="221"/>
       <c r="K41" s="81" t="s">
         <v>348</v>
       </c>
       <c r="L41" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="M41" s="202"/>
+      <c r="M41" s="228"/>
     </row>
     <row r="42" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="205"/>
-      <c r="C42" s="218"/>
-      <c r="D42" s="205"/>
-      <c r="E42" s="205"/>
-      <c r="F42" s="205"/>
-      <c r="G42" s="248"/>
-      <c r="H42" s="236"/>
-      <c r="I42" s="250"/>
-      <c r="J42" s="205"/>
+      <c r="B42" s="221"/>
+      <c r="C42" s="198"/>
+      <c r="D42" s="221"/>
+      <c r="E42" s="221"/>
+      <c r="F42" s="221"/>
+      <c r="G42" s="242"/>
+      <c r="H42" s="253"/>
+      <c r="I42" s="245"/>
+      <c r="J42" s="221"/>
       <c r="K42" s="83" t="s">
         <v>333</v>
       </c>
       <c r="L42" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="M42" s="202"/>
+      <c r="M42" s="228"/>
     </row>
     <row r="43" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="206"/>
-      <c r="C43" s="219"/>
-      <c r="D43" s="211"/>
-      <c r="E43" s="211"/>
-      <c r="F43" s="211"/>
-      <c r="G43" s="249"/>
-      <c r="H43" s="237"/>
-      <c r="I43" s="251"/>
-      <c r="J43" s="211"/>
+      <c r="B43" s="222"/>
+      <c r="C43" s="199"/>
+      <c r="D43" s="225"/>
+      <c r="E43" s="225"/>
+      <c r="F43" s="225"/>
+      <c r="G43" s="243"/>
+      <c r="H43" s="254"/>
+      <c r="I43" s="246"/>
+      <c r="J43" s="225"/>
       <c r="K43" s="78"/>
       <c r="L43" s="80"/>
-      <c r="M43" s="203"/>
+      <c r="M43" s="229"/>
     </row>
     <row r="44" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="1">
@@ -15227,10 +15304,10 @@
       <c r="H44" s="157"/>
       <c r="I44" s="28"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="192" t="s">
+      <c r="K44" s="212" t="s">
         <v>278</v>
       </c>
-      <c r="L44" s="193"/>
+      <c r="L44" s="226"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15250,10 +15327,10 @@
       <c r="H45" s="157"/>
       <c r="I45" s="28"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="192" t="s">
+      <c r="K45" s="212" t="s">
         <v>279</v>
       </c>
-      <c r="L45" s="193"/>
+      <c r="L45" s="226"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="66" customHeight="1" x14ac:dyDescent="0.15">
@@ -15273,10 +15350,10 @@
       <c r="H46" s="157"/>
       <c r="I46" s="28"/>
       <c r="J46" s="25"/>
-      <c r="K46" s="192" t="s">
+      <c r="K46" s="212" t="s">
         <v>289</v>
       </c>
-      <c r="L46" s="193"/>
+      <c r="L46" s="226"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15296,10 +15373,10 @@
       <c r="H47" s="157"/>
       <c r="I47" s="28"/>
       <c r="J47" s="25"/>
-      <c r="K47" s="192" t="s">
+      <c r="K47" s="212" t="s">
         <v>290</v>
       </c>
-      <c r="L47" s="193"/>
+      <c r="L47" s="226"/>
       <c r="M47" s="29"/>
     </row>
     <row r="48" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15319,10 +15396,10 @@
       <c r="H48" s="157"/>
       <c r="I48" s="28"/>
       <c r="J48" s="25"/>
-      <c r="K48" s="192" t="s">
+      <c r="K48" s="212" t="s">
         <v>291</v>
       </c>
-      <c r="L48" s="193"/>
+      <c r="L48" s="226"/>
       <c r="M48" s="29"/>
     </row>
     <row r="49" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -15337,8 +15414,8 @@
       <c r="H49" s="161"/>
       <c r="I49" s="7"/>
       <c r="J49" s="7"/>
-      <c r="K49" s="241"/>
-      <c r="L49" s="199"/>
+      <c r="K49" s="247"/>
+      <c r="L49" s="211"/>
       <c r="M49" s="8"/>
     </row>
     <row r="50" spans="2:13" ht="87.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -15358,10 +15435,10 @@
       <c r="H50" s="157"/>
       <c r="I50" s="28"/>
       <c r="J50" s="25"/>
-      <c r="K50" s="245" t="s">
+      <c r="K50" s="240" t="s">
         <v>311</v>
       </c>
-      <c r="L50" s="195"/>
+      <c r="L50" s="213"/>
       <c r="M50" s="29"/>
     </row>
     <row r="51" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15381,10 +15458,10 @@
       <c r="H51" s="157"/>
       <c r="I51" s="28"/>
       <c r="J51" s="25"/>
-      <c r="K51" s="245" t="s">
+      <c r="K51" s="240" t="s">
         <v>313</v>
       </c>
-      <c r="L51" s="195"/>
+      <c r="L51" s="213"/>
       <c r="M51" s="29" t="s">
         <v>346</v>
       </c>
@@ -15406,10 +15483,10 @@
       <c r="H52" s="157"/>
       <c r="I52" s="28"/>
       <c r="J52" s="25"/>
-      <c r="K52" s="245" t="s">
+      <c r="K52" s="240" t="s">
         <v>314</v>
       </c>
-      <c r="L52" s="193"/>
+      <c r="L52" s="226"/>
       <c r="M52" s="29"/>
     </row>
     <row r="53" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -15429,10 +15506,10 @@
       <c r="H53" s="157"/>
       <c r="I53" s="28"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="245" t="s">
+      <c r="K53" s="240" t="s">
         <v>315</v>
       </c>
-      <c r="L53" s="193"/>
+      <c r="L53" s="226"/>
       <c r="M53" s="29"/>
     </row>
     <row r="54" spans="2:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -15452,10 +15529,10 @@
       <c r="H54" s="157"/>
       <c r="I54" s="28"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="245" t="s">
+      <c r="K54" s="240" t="s">
         <v>345</v>
       </c>
-      <c r="L54" s="193"/>
+      <c r="L54" s="226"/>
       <c r="M54" s="29"/>
     </row>
     <row r="55" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -15475,10 +15552,10 @@
       <c r="H55" s="157"/>
       <c r="I55" s="33"/>
       <c r="J55" s="34"/>
-      <c r="K55" s="245" t="s">
+      <c r="K55" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="L55" s="193"/>
+      <c r="L55" s="226"/>
       <c r="M55" s="29"/>
     </row>
     <row r="56" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -15493,8 +15570,8 @@
       <c r="H56" s="161"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="241"/>
-      <c r="L56" s="199"/>
+      <c r="K56" s="247"/>
+      <c r="L56" s="211"/>
       <c r="M56" s="8"/>
     </row>
     <row r="57" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -15514,10 +15591,10 @@
       <c r="H57" s="157"/>
       <c r="I57" s="33"/>
       <c r="J57" s="34"/>
-      <c r="K57" s="245" t="s">
+      <c r="K57" s="240" t="s">
         <v>316</v>
       </c>
-      <c r="L57" s="195"/>
+      <c r="L57" s="213"/>
       <c r="M57" s="27" t="s">
         <v>329</v>
       </c>
@@ -15539,10 +15616,10 @@
       <c r="H58" s="157"/>
       <c r="I58" s="28"/>
       <c r="J58" s="25"/>
-      <c r="K58" s="245" t="s">
+      <c r="K58" s="240" t="s">
         <v>5</v>
       </c>
-      <c r="L58" s="195"/>
+      <c r="L58" s="213"/>
       <c r="M58" s="27"/>
     </row>
     <row r="59" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -15562,10 +15639,10 @@
       <c r="H59" s="157"/>
       <c r="I59" s="28"/>
       <c r="J59" s="25"/>
-      <c r="K59" s="245" t="s">
+      <c r="K59" s="240" t="s">
         <v>318</v>
       </c>
-      <c r="L59" s="195"/>
+      <c r="L59" s="213"/>
       <c r="M59" s="27"/>
     </row>
     <row r="60" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -15585,10 +15662,10 @@
       <c r="H60" s="157"/>
       <c r="I60" s="28"/>
       <c r="J60" s="25"/>
-      <c r="K60" s="245" t="s">
+      <c r="K60" s="240" t="s">
         <v>319</v>
       </c>
-      <c r="L60" s="195"/>
+      <c r="L60" s="213"/>
       <c r="M60" s="27"/>
     </row>
     <row r="61" spans="2:13" ht="40.5" x14ac:dyDescent="0.15">
@@ -15608,10 +15685,10 @@
       <c r="H61" s="157"/>
       <c r="I61" s="28"/>
       <c r="J61" s="25"/>
-      <c r="K61" s="245" t="s">
+      <c r="K61" s="240" t="s">
         <v>320</v>
       </c>
-      <c r="L61" s="193"/>
+      <c r="L61" s="226"/>
       <c r="M61" s="27" t="s">
         <v>323</v>
       </c>
@@ -15633,10 +15710,10 @@
       <c r="H62" s="157"/>
       <c r="I62" s="33"/>
       <c r="J62" s="34"/>
-      <c r="K62" s="245" t="s">
+      <c r="K62" s="240" t="s">
         <v>321</v>
       </c>
-      <c r="L62" s="193"/>
+      <c r="L62" s="226"/>
       <c r="M62" s="27" t="s">
         <v>322</v>
       </c>
@@ -15644,53 +15721,22 @@
   </sheetData>
   <autoFilter ref="B12:M62"/>
   <mergeCells count="79">
-    <mergeCell ref="B40:B43"/>
-    <mergeCell ref="M40:M43"/>
-    <mergeCell ref="K59:L59"/>
-    <mergeCell ref="K60:L60"/>
-    <mergeCell ref="K61:L61"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="K52:L52"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K62:L62"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="D40:D43"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="F40:F43"/>
-    <mergeCell ref="G40:G43"/>
-    <mergeCell ref="I40:I43"/>
-    <mergeCell ref="J40:J43"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="H40:H43"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
     <mergeCell ref="C27:C28"/>
     <mergeCell ref="D27:D28"/>
     <mergeCell ref="E27:E28"/>
@@ -15707,22 +15753,53 @@
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K24:L24"/>
     <mergeCell ref="K25:L25"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="H40:H43"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K62:L62"/>
+    <mergeCell ref="C40:C43"/>
+    <mergeCell ref="D40:D43"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="F40:F43"/>
+    <mergeCell ref="G40:G43"/>
+    <mergeCell ref="I40:I43"/>
+    <mergeCell ref="J40:J43"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="B40:B43"/>
+    <mergeCell ref="M40:M43"/>
+    <mergeCell ref="K59:L59"/>
+    <mergeCell ref="K60:L60"/>
+    <mergeCell ref="K61:L61"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K52:L52"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K48:L48"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -15775,34 +15852,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="183" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="180" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA Construction (Ansible Tower)</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="182"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="55"/>
       <c r="L3" s="55"/>
       <c r="M3" s="19"/>
@@ -15930,32 +16007,32 @@
       <c r="M11" s="19"/>
     </row>
     <row r="12" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="212" t="s">
+      <c r="B12" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="214" t="s">
+      <c r="C12" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="D12" s="216" t="s">
+      <c r="D12" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="E12" s="217"/>
-      <c r="F12" s="217"/>
-      <c r="G12" s="217"/>
-      <c r="H12" s="217"/>
-      <c r="I12" s="217"/>
-      <c r="J12" s="217"/>
-      <c r="K12" s="225" t="s">
+      <c r="E12" s="219"/>
+      <c r="F12" s="219"/>
+      <c r="G12" s="219"/>
+      <c r="H12" s="219"/>
+      <c r="I12" s="219"/>
+      <c r="J12" s="219"/>
+      <c r="K12" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="L12" s="252"/>
-      <c r="M12" s="220" t="s">
+      <c r="L12" s="264"/>
+      <c r="M12" s="200" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="213"/>
-      <c r="C13" s="215"/>
+      <c r="B13" s="215"/>
+      <c r="C13" s="217"/>
       <c r="D13" s="4" t="s">
         <v>88</v>
       </c>
@@ -15977,9 +16054,9 @@
       <c r="J13" s="156" t="s">
         <v>444</v>
       </c>
-      <c r="K13" s="227"/>
-      <c r="L13" s="253"/>
-      <c r="M13" s="221"/>
+      <c r="K13" s="208"/>
+      <c r="L13" s="265"/>
+      <c r="M13" s="201"/>
     </row>
     <row r="14" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
@@ -15993,8 +16070,8 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
-      <c r="K14" s="241"/>
-      <c r="L14" s="254"/>
+      <c r="K14" s="247"/>
+      <c r="L14" s="259"/>
       <c r="M14" s="8"/>
     </row>
     <row r="15" spans="2:13" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16013,84 +16090,84 @@
       </c>
       <c r="I15" s="50"/>
       <c r="J15" s="25"/>
-      <c r="K15" s="245" t="s">
+      <c r="K15" s="240" t="s">
         <v>349</v>
       </c>
-      <c r="L15" s="193"/>
+      <c r="L15" s="226"/>
       <c r="M15" s="29"/>
     </row>
     <row r="16" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="204">
+      <c r="B16" s="220">
         <f>MAX(B$12:B15)+1</f>
         <v>2</v>
       </c>
-      <c r="C16" s="256" t="s">
+      <c r="C16" s="261" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="210"/>
-      <c r="E16" s="210"/>
-      <c r="F16" s="210"/>
-      <c r="G16" s="238" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16" s="235"/>
-      <c r="I16" s="242"/>
-      <c r="J16" s="210"/>
-      <c r="K16" s="192" t="s">
+      <c r="D16" s="203"/>
+      <c r="E16" s="203"/>
+      <c r="F16" s="203"/>
+      <c r="G16" s="241" t="s">
+        <v>3</v>
+      </c>
+      <c r="H16" s="252"/>
+      <c r="I16" s="244"/>
+      <c r="J16" s="203"/>
+      <c r="K16" s="212" t="s">
         <v>347</v>
       </c>
-      <c r="L16" s="195"/>
-      <c r="M16" s="201"/>
+      <c r="L16" s="213"/>
+      <c r="M16" s="227"/>
     </row>
     <row r="17" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="205"/>
-      <c r="C17" s="257"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="248"/>
-      <c r="H17" s="236"/>
-      <c r="I17" s="250"/>
-      <c r="J17" s="205"/>
+      <c r="B17" s="221"/>
+      <c r="C17" s="262"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="242"/>
+      <c r="H17" s="253"/>
+      <c r="I17" s="245"/>
+      <c r="J17" s="221"/>
       <c r="K17" s="81" t="s">
         <v>350</v>
       </c>
       <c r="L17" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="M17" s="202"/>
+      <c r="M17" s="228"/>
     </row>
     <row r="18" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="205"/>
-      <c r="C18" s="257"/>
-      <c r="D18" s="205"/>
-      <c r="E18" s="205"/>
-      <c r="F18" s="205"/>
-      <c r="G18" s="248"/>
-      <c r="H18" s="236"/>
-      <c r="I18" s="250"/>
-      <c r="J18" s="205"/>
+      <c r="B18" s="221"/>
+      <c r="C18" s="262"/>
+      <c r="D18" s="221"/>
+      <c r="E18" s="221"/>
+      <c r="F18" s="221"/>
+      <c r="G18" s="242"/>
+      <c r="H18" s="253"/>
+      <c r="I18" s="245"/>
+      <c r="J18" s="221"/>
       <c r="K18" s="83" t="s">
         <v>351</v>
       </c>
       <c r="L18" s="85" t="s">
         <v>270</v>
       </c>
-      <c r="M18" s="202"/>
+      <c r="M18" s="228"/>
     </row>
     <row r="19" spans="2:13" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="255"/>
-      <c r="C19" s="258"/>
-      <c r="D19" s="211"/>
-      <c r="E19" s="211"/>
-      <c r="F19" s="211"/>
-      <c r="G19" s="249"/>
-      <c r="H19" s="237"/>
-      <c r="I19" s="251"/>
-      <c r="J19" s="211"/>
-      <c r="K19" s="192"/>
-      <c r="L19" s="259"/>
-      <c r="M19" s="203"/>
+      <c r="B19" s="260"/>
+      <c r="C19" s="263"/>
+      <c r="D19" s="225"/>
+      <c r="E19" s="225"/>
+      <c r="F19" s="225"/>
+      <c r="G19" s="243"/>
+      <c r="H19" s="254"/>
+      <c r="I19" s="246"/>
+      <c r="J19" s="225"/>
+      <c r="K19" s="212"/>
+      <c r="L19" s="257"/>
+      <c r="M19" s="229"/>
     </row>
     <row r="20" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B20" s="1"/>
@@ -16099,12 +16176,12 @@
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="260"/>
-      <c r="G20" s="260"/>
-      <c r="H20" s="260"/>
-      <c r="I20" s="260"/>
-      <c r="J20" s="260"/>
-      <c r="K20" s="260"/>
+      <c r="F20" s="258"/>
+      <c r="G20" s="258"/>
+      <c r="H20" s="258"/>
+      <c r="I20" s="258"/>
+      <c r="J20" s="258"/>
+      <c r="K20" s="258"/>
       <c r="L20" s="7"/>
       <c r="M20" s="8"/>
     </row>
@@ -16125,10 +16202,10 @@
       <c r="H21" s="157"/>
       <c r="I21" s="33"/>
       <c r="J21" s="34"/>
-      <c r="K21" s="245" t="s">
+      <c r="K21" s="240" t="s">
         <v>352</v>
       </c>
-      <c r="L21" s="193"/>
+      <c r="L21" s="226"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16148,21 +16225,22 @@
       <c r="H22" s="157"/>
       <c r="I22" s="33"/>
       <c r="J22" s="34"/>
-      <c r="K22" s="245" t="s">
+      <c r="K22" s="240" t="s">
         <v>353</v>
       </c>
-      <c r="L22" s="193"/>
+      <c r="L22" s="226"/>
       <c r="M22" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B13:M22"/>
   <mergeCells count="24">
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="J16:J19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="M16:M19"/>
-    <mergeCell ref="F20:K20"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:J12"/>
+    <mergeCell ref="K12:L13"/>
     <mergeCell ref="K14:L14"/>
     <mergeCell ref="K15:L15"/>
     <mergeCell ref="K16:L16"/>
@@ -16174,13 +16252,12 @@
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="I16:I19"/>
     <mergeCell ref="H16:H19"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:J12"/>
-    <mergeCell ref="K12:L13"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="J16:J19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="M16:M19"/>
+    <mergeCell ref="F20:K20"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.55118110236220474" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16229,17 +16306,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="19" t="s">
         <v>99</v>
       </c>
@@ -16247,18 +16324,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="180" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA Construction (Cobbler)</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="182"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="55" t="s">
         <v>405</v>
       </c>
@@ -16374,32 +16451,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="216" t="s">
+      <c r="D11" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="225" t="s">
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="226"/>
-      <c r="M11" s="220" t="s">
+      <c r="L11" s="207"/>
+      <c r="M11" s="200" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="213"/>
-      <c r="C12" s="215"/>
+      <c r="B12" s="215"/>
+      <c r="C12" s="217"/>
       <c r="D12" s="4" t="s">
         <v>88</v>
       </c>
@@ -16421,9 +16498,9 @@
       <c r="J12" s="156" t="s">
         <v>444</v>
       </c>
-      <c r="K12" s="227"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="221"/>
+      <c r="K12" s="208"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="201"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -16437,8 +16514,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="199"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="211"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16446,21 +16523,21 @@
         <f>MAX(B$10:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="222" t="s">
+      <c r="C14" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="210"/>
-      <c r="E14" s="210"/>
-      <c r="F14" s="210"/>
+      <c r="D14" s="203"/>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
       <c r="G14" s="150"/>
-      <c r="H14" s="210" t="s">
-        <v>3</v>
-      </c>
-      <c r="J14" s="210"/>
-      <c r="K14" s="192" t="s">
+      <c r="H14" s="203" t="s">
+        <v>3</v>
+      </c>
+      <c r="J14" s="203"/>
+      <c r="K14" s="212" t="s">
         <v>180</v>
       </c>
-      <c r="L14" s="195"/>
+      <c r="L14" s="213"/>
       <c r="M14" s="16" t="s">
         <v>241</v>
       </c>
@@ -16470,17 +16547,17 @@
         <f>MAX(B$10:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="218"/>
-      <c r="D15" s="223"/>
-      <c r="E15" s="223"/>
-      <c r="F15" s="223"/>
+      <c r="C15" s="198"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="204"/>
       <c r="G15" s="152"/>
-      <c r="H15" s="223"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="192" t="s">
+      <c r="H15" s="204"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="195"/>
+      <c r="L15" s="213"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16488,17 +16565,17 @@
         <f>MAX(B$10:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="219"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
+      <c r="C16" s="199"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="205"/>
       <c r="G16" s="153"/>
-      <c r="H16" s="224"/>
-      <c r="J16" s="224"/>
-      <c r="K16" s="192" t="s">
+      <c r="H16" s="205"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="212" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="195"/>
+      <c r="L16" s="213"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -16513,8 +16590,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="154"/>
       <c r="J17" s="154"/>
-      <c r="K17" s="241"/>
-      <c r="L17" s="199"/>
+      <c r="K17" s="247"/>
+      <c r="L17" s="211"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16533,10 +16610,10 @@
         <v>3</v>
       </c>
       <c r="J18" s="25"/>
-      <c r="K18" s="245" t="s">
+      <c r="K18" s="240" t="s">
         <v>259</v>
       </c>
-      <c r="L18" s="195"/>
+      <c r="L18" s="213"/>
       <c r="M18" s="27" t="s">
         <v>363</v>
       </c>
@@ -16553,8 +16630,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="154"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="241"/>
-      <c r="L19" s="199"/>
+      <c r="K19" s="247"/>
+      <c r="L19" s="211"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="189" x14ac:dyDescent="0.15">
@@ -16574,10 +16651,10 @@
       </c>
       <c r="I20" s="157"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="245" t="s">
+      <c r="K20" s="240" t="s">
         <v>260</v>
       </c>
-      <c r="L20" s="195"/>
+      <c r="L20" s="213"/>
       <c r="M20" s="143" t="s">
         <v>265</v>
       </c>
@@ -16599,10 +16676,10 @@
       </c>
       <c r="I21" s="157"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="245" t="s">
+      <c r="K21" s="240" t="s">
         <v>261</v>
       </c>
-      <c r="L21" s="195"/>
+      <c r="L21" s="213"/>
       <c r="M21" s="27" t="s">
         <v>364</v>
       </c>
@@ -16624,10 +16701,10 @@
       </c>
       <c r="I22" s="157"/>
       <c r="J22" s="25"/>
-      <c r="K22" s="245" t="s">
+      <c r="K22" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="L22" s="193"/>
+      <c r="L22" s="226"/>
       <c r="M22" s="27"/>
     </row>
     <row r="23" spans="2:13" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -16647,10 +16724,10 @@
       <c r="H23" s="122"/>
       <c r="I23" s="157"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="192" t="s">
+      <c r="K23" s="212" t="s">
         <v>262</v>
       </c>
-      <c r="L23" s="195"/>
+      <c r="L23" s="213"/>
       <c r="M23" s="27" t="s">
         <v>365</v>
       </c>
@@ -16660,21 +16737,21 @@
         <f>MAX(B$11:B23)+1</f>
         <v>9</v>
       </c>
-      <c r="C24" s="222" t="s">
+      <c r="C24" s="202" t="s">
         <v>105</v>
       </c>
-      <c r="D24" s="210"/>
-      <c r="E24" s="210"/>
-      <c r="F24" s="210"/>
+      <c r="D24" s="203"/>
+      <c r="E24" s="203"/>
+      <c r="F24" s="203"/>
       <c r="G24" s="150"/>
-      <c r="H24" s="210" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="210"/>
-      <c r="K24" s="245" t="s">
+      <c r="H24" s="203" t="s">
+        <v>3</v>
+      </c>
+      <c r="J24" s="203"/>
+      <c r="K24" s="240" t="s">
         <v>263</v>
       </c>
-      <c r="L24" s="193"/>
+      <c r="L24" s="226"/>
       <c r="M24" s="27"/>
     </row>
     <row r="25" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -16682,17 +16759,17 @@
         <f>MAX(B$11:B24)+1</f>
         <v>10</v>
       </c>
-      <c r="C25" s="218"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="223"/>
-      <c r="F25" s="223"/>
+      <c r="C25" s="198"/>
+      <c r="D25" s="204"/>
+      <c r="E25" s="204"/>
+      <c r="F25" s="204"/>
       <c r="G25" s="152"/>
-      <c r="H25" s="223"/>
-      <c r="J25" s="223"/>
-      <c r="K25" s="192" t="s">
+      <c r="H25" s="204"/>
+      <c r="J25" s="204"/>
+      <c r="K25" s="212" t="s">
         <v>235</v>
       </c>
-      <c r="L25" s="195"/>
+      <c r="L25" s="213"/>
       <c r="M25" s="27" t="s">
         <v>366</v>
       </c>
@@ -16709,8 +16786,8 @@
       <c r="H26" s="7"/>
       <c r="I26" s="154"/>
       <c r="J26" s="154"/>
-      <c r="K26" s="241"/>
-      <c r="L26" s="199"/>
+      <c r="K26" s="247"/>
+      <c r="L26" s="211"/>
       <c r="M26" s="8"/>
     </row>
     <row r="27" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16729,10 +16806,10 @@
         <v>3</v>
       </c>
       <c r="J27" s="25"/>
-      <c r="K27" s="192" t="s">
+      <c r="K27" s="212" t="s">
         <v>268</v>
       </c>
-      <c r="L27" s="193"/>
+      <c r="L27" s="226"/>
       <c r="M27" s="27"/>
     </row>
     <row r="28" spans="2:13" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16751,10 +16828,10 @@
         <v>3</v>
       </c>
       <c r="J28" s="25"/>
-      <c r="K28" s="192" t="s">
+      <c r="K28" s="212" t="s">
         <v>267</v>
       </c>
-      <c r="L28" s="193"/>
+      <c r="L28" s="226"/>
       <c r="M28" s="27"/>
     </row>
     <row r="29" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16773,10 +16850,10 @@
         <v>3</v>
       </c>
       <c r="J29" s="25"/>
-      <c r="K29" s="192" t="s">
+      <c r="K29" s="212" t="s">
         <v>242</v>
       </c>
-      <c r="L29" s="193"/>
+      <c r="L29" s="226"/>
       <c r="M29" s="27"/>
     </row>
     <row r="30" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -16791,8 +16868,8 @@
       <c r="H30" s="7"/>
       <c r="I30" s="154"/>
       <c r="J30" s="154"/>
-      <c r="K30" s="241"/>
-      <c r="L30" s="199"/>
+      <c r="K30" s="247"/>
+      <c r="L30" s="211"/>
       <c r="M30" s="8"/>
     </row>
     <row r="31" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -16812,10 +16889,10 @@
       </c>
       <c r="I31" s="157"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="245" t="s">
+      <c r="K31" s="240" t="s">
         <v>335</v>
       </c>
-      <c r="L31" s="195"/>
+      <c r="L31" s="213"/>
       <c r="M31" s="123" t="s">
         <v>239</v>
       </c>
@@ -16837,84 +16914,84 @@
       </c>
       <c r="I32" s="157"/>
       <c r="J32" s="34"/>
-      <c r="K32" s="245" t="s">
+      <c r="K32" s="240" t="s">
         <v>334</v>
       </c>
-      <c r="L32" s="195"/>
+      <c r="L32" s="213"/>
       <c r="M32" s="29"/>
     </row>
     <row r="33" spans="2:13" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="204">
+      <c r="B33" s="220">
         <f>MAX(B$11:B32)+1</f>
         <v>16</v>
       </c>
-      <c r="C33" s="222" t="s">
+      <c r="C33" s="202" t="s">
         <v>117</v>
       </c>
-      <c r="D33" s="210"/>
-      <c r="E33" s="210"/>
-      <c r="F33" s="210"/>
+      <c r="D33" s="203"/>
+      <c r="E33" s="203"/>
+      <c r="F33" s="203"/>
       <c r="G33" s="150"/>
-      <c r="H33" s="210" t="s">
-        <v>3</v>
-      </c>
-      <c r="I33" s="235"/>
-      <c r="J33" s="210"/>
-      <c r="K33" s="192" t="s">
+      <c r="H33" s="203" t="s">
+        <v>3</v>
+      </c>
+      <c r="I33" s="252"/>
+      <c r="J33" s="203"/>
+      <c r="K33" s="212" t="s">
         <v>347</v>
       </c>
-      <c r="L33" s="195"/>
-      <c r="M33" s="201"/>
+      <c r="L33" s="213"/>
+      <c r="M33" s="227"/>
     </row>
     <row r="34" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="261"/>
-      <c r="C34" s="208"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="205"/>
-      <c r="F34" s="205"/>
+      <c r="B34" s="266"/>
+      <c r="C34" s="223"/>
+      <c r="D34" s="221"/>
+      <c r="E34" s="221"/>
+      <c r="F34" s="221"/>
       <c r="G34" s="149"/>
-      <c r="H34" s="205"/>
-      <c r="I34" s="236"/>
-      <c r="J34" s="205"/>
+      <c r="H34" s="221"/>
+      <c r="I34" s="253"/>
+      <c r="J34" s="221"/>
       <c r="K34" s="81" t="s">
         <v>370</v>
       </c>
       <c r="L34" s="81" t="s">
         <v>185</v>
       </c>
-      <c r="M34" s="202"/>
+      <c r="M34" s="228"/>
     </row>
     <row r="35" spans="2:13" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="261"/>
-      <c r="C35" s="208"/>
-      <c r="D35" s="205"/>
-      <c r="E35" s="205"/>
-      <c r="F35" s="205"/>
+      <c r="B35" s="266"/>
+      <c r="C35" s="223"/>
+      <c r="D35" s="221"/>
+      <c r="E35" s="221"/>
+      <c r="F35" s="221"/>
       <c r="G35" s="149"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="236"/>
-      <c r="J35" s="205"/>
+      <c r="H35" s="221"/>
+      <c r="I35" s="253"/>
+      <c r="J35" s="221"/>
       <c r="K35" s="83" t="s">
         <v>333</v>
       </c>
       <c r="L35" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="M35" s="202"/>
+      <c r="M35" s="228"/>
     </row>
     <row r="36" spans="2:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="262"/>
-      <c r="C36" s="209"/>
-      <c r="D36" s="211"/>
-      <c r="E36" s="211"/>
-      <c r="F36" s="211"/>
+      <c r="B36" s="267"/>
+      <c r="C36" s="224"/>
+      <c r="D36" s="225"/>
+      <c r="E36" s="225"/>
+      <c r="F36" s="225"/>
       <c r="G36" s="151"/>
-      <c r="H36" s="211"/>
-      <c r="I36" s="237"/>
-      <c r="J36" s="211"/>
-      <c r="K36" s="192"/>
-      <c r="L36" s="193"/>
-      <c r="M36" s="203"/>
+      <c r="H36" s="225"/>
+      <c r="I36" s="254"/>
+      <c r="J36" s="225"/>
+      <c r="K36" s="212"/>
+      <c r="L36" s="226"/>
+      <c r="M36" s="229"/>
     </row>
     <row r="37" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1">
@@ -16933,10 +17010,10 @@
       </c>
       <c r="I37" s="157"/>
       <c r="J37" s="25"/>
-      <c r="K37" s="192" t="s">
+      <c r="K37" s="212" t="s">
         <v>278</v>
       </c>
-      <c r="L37" s="193"/>
+      <c r="L37" s="226"/>
       <c r="M37" s="29"/>
     </row>
     <row r="38" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -16956,10 +17033,10 @@
       </c>
       <c r="I38" s="157"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="192" t="s">
+      <c r="K38" s="212" t="s">
         <v>279</v>
       </c>
-      <c r="L38" s="193"/>
+      <c r="L38" s="226"/>
       <c r="M38" s="29"/>
     </row>
     <row r="39" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -16979,10 +17056,10 @@
       </c>
       <c r="I39" s="157"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="192" t="s">
+      <c r="K39" s="212" t="s">
         <v>289</v>
       </c>
-      <c r="L39" s="193"/>
+      <c r="L39" s="226"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17002,10 +17079,10 @@
       </c>
       <c r="I40" s="157"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="192" t="s">
+      <c r="K40" s="212" t="s">
         <v>290</v>
       </c>
-      <c r="L40" s="193"/>
+      <c r="L40" s="226"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17025,10 +17102,10 @@
       </c>
       <c r="I41" s="157"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="192" t="s">
+      <c r="K41" s="212" t="s">
         <v>291</v>
       </c>
-      <c r="L41" s="193"/>
+      <c r="L41" s="226"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -17048,10 +17125,10 @@
       </c>
       <c r="I42" s="157"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="192" t="s">
+      <c r="K42" s="212" t="s">
         <v>358</v>
       </c>
-      <c r="L42" s="193"/>
+      <c r="L42" s="226"/>
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="2:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -17071,10 +17148,10 @@
       </c>
       <c r="I43" s="157"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="192" t="s">
+      <c r="K43" s="212" t="s">
         <v>357</v>
       </c>
-      <c r="L43" s="193"/>
+      <c r="L43" s="226"/>
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="2:13" ht="74.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17093,10 +17170,10 @@
         <v>3</v>
       </c>
       <c r="J44" s="25"/>
-      <c r="K44" s="192" t="s">
+      <c r="K44" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="L44" s="193"/>
+      <c r="L44" s="226"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -17111,8 +17188,8 @@
       <c r="H45" s="7"/>
       <c r="I45" s="154"/>
       <c r="J45" s="154"/>
-      <c r="K45" s="241"/>
-      <c r="L45" s="199"/>
+      <c r="K45" s="247"/>
+      <c r="L45" s="211"/>
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="2:13" ht="69.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -17131,10 +17208,10 @@
         <v>3</v>
       </c>
       <c r="J46" s="25"/>
-      <c r="K46" s="245" t="s">
+      <c r="K46" s="240" t="s">
         <v>360</v>
       </c>
-      <c r="L46" s="195"/>
+      <c r="L46" s="213"/>
       <c r="M46" s="29"/>
     </row>
     <row r="47" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -17149,8 +17226,8 @@
       <c r="H47" s="7"/>
       <c r="I47" s="154"/>
       <c r="J47" s="154"/>
-      <c r="K47" s="241"/>
-      <c r="L47" s="199"/>
+      <c r="K47" s="247"/>
+      <c r="L47" s="211"/>
       <c r="M47" s="8"/>
     </row>
     <row r="48" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17170,37 +17247,39 @@
       </c>
       <c r="I48" s="157"/>
       <c r="J48" s="34"/>
-      <c r="K48" s="245" t="s">
+      <c r="K48" s="240" t="s">
         <v>361</v>
       </c>
-      <c r="L48" s="195"/>
+      <c r="L48" s="213"/>
       <c r="M48" s="27"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:M48"/>
   <mergeCells count="62">
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="M33:M36"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="I33:I36"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="H33:H36"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="K25:L25"/>
     <mergeCell ref="E33:E36"/>
     <mergeCell ref="F33:F36"/>
     <mergeCell ref="J33:J36"/>
@@ -17217,30 +17296,28 @@
     <mergeCell ref="K22:L22"/>
     <mergeCell ref="K23:L23"/>
     <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="I33:I36"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="B33:B36"/>
-    <mergeCell ref="C33:C36"/>
-    <mergeCell ref="H33:H36"/>
-    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="M33:M36"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K46:L46"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -17294,34 +17371,34 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="19"/>
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="180" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA Construction (Terraform)</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="182"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="20"/>
       <c r="L3" s="20"/>
       <c r="M3" s="19"/>
@@ -17425,32 +17502,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="216" t="s">
+      <c r="D11" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="225" t="s">
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="226"/>
-      <c r="M11" s="220" t="s">
+      <c r="L11" s="207"/>
+      <c r="M11" s="200" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="213"/>
-      <c r="C12" s="215"/>
+      <c r="B12" s="215"/>
+      <c r="C12" s="217"/>
       <c r="D12" s="4" t="s">
         <v>88</v>
       </c>
@@ -17472,9 +17549,9 @@
       <c r="J12" s="156" t="s">
         <v>444</v>
       </c>
-      <c r="K12" s="227"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="221"/>
+      <c r="K12" s="208"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="201"/>
     </row>
     <row r="13" spans="2:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="132"/>
@@ -17488,8 +17565,8 @@
       <c r="H13" s="128"/>
       <c r="I13" s="128"/>
       <c r="J13" s="128"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="199"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="211"/>
       <c r="M13" s="8"/>
     </row>
     <row r="14" spans="2:13" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17509,10 +17586,10 @@
         <v>3</v>
       </c>
       <c r="J14" s="157"/>
-      <c r="K14" s="245" t="s">
+      <c r="K14" s="240" t="s">
         <v>354</v>
       </c>
-      <c r="L14" s="195"/>
+      <c r="L14" s="213"/>
       <c r="M14" s="129"/>
     </row>
     <row r="15" spans="2:13" ht="62.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -17532,10 +17609,10 @@
         <v>3</v>
       </c>
       <c r="J15" s="157"/>
-      <c r="K15" s="245" t="s">
+      <c r="K15" s="240" t="s">
         <v>356</v>
       </c>
-      <c r="L15" s="193"/>
+      <c r="L15" s="226"/>
       <c r="M15" s="129"/>
     </row>
   </sheetData>
@@ -17568,7 +17645,7 @@
   </sheetPr>
   <dimension ref="B1:M87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
@@ -17598,17 +17675,17 @@
       <c r="M1" s="19"/>
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B2" s="178" t="s">
+      <c r="B2" s="183" t="s">
         <v>90</v>
       </c>
-      <c r="C2" s="179"/>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="179"/>
-      <c r="H2" s="179"/>
-      <c r="I2" s="179"/>
-      <c r="J2" s="179"/>
+      <c r="C2" s="184"/>
+      <c r="D2" s="184"/>
+      <c r="E2" s="184"/>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
       <c r="K2" s="19" t="s">
         <v>99</v>
       </c>
@@ -17616,18 +17693,18 @@
       <c r="M2" s="19"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
-      <c r="B3" s="180" t="str">
+      <c r="B3" s="185" t="str">
         <f ca="1">RIGHT(CELL("filename",A1),LEN(CELL("filename",A1))-FIND("]",CELL("filename",A1)))</f>
         <v>HA Construction (Web・AP)</v>
       </c>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="182"/>
+      <c r="C3" s="186"/>
+      <c r="D3" s="186"/>
+      <c r="E3" s="186"/>
+      <c r="F3" s="186"/>
+      <c r="G3" s="186"/>
+      <c r="H3" s="186"/>
+      <c r="I3" s="186"/>
+      <c r="J3" s="187"/>
       <c r="K3" s="55" t="s">
         <v>405</v>
       </c>
@@ -17741,32 +17818,32 @@
       <c r="M10" s="19"/>
     </row>
     <row r="11" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="212" t="s">
+      <c r="B11" s="214" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="214" t="s">
+      <c r="C11" s="216" t="s">
         <v>58</v>
       </c>
-      <c r="D11" s="216" t="s">
+      <c r="D11" s="218" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="217"/>
-      <c r="F11" s="217"/>
-      <c r="G11" s="217"/>
-      <c r="H11" s="217"/>
-      <c r="I11" s="217"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="225" t="s">
+      <c r="E11" s="219"/>
+      <c r="F11" s="219"/>
+      <c r="G11" s="219"/>
+      <c r="H11" s="219"/>
+      <c r="I11" s="219"/>
+      <c r="J11" s="219"/>
+      <c r="K11" s="206" t="s">
         <v>89</v>
       </c>
-      <c r="L11" s="226"/>
-      <c r="M11" s="220" t="s">
+      <c r="L11" s="207"/>
+      <c r="M11" s="200" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="12" spans="2:13" ht="84.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="213"/>
-      <c r="C12" s="215"/>
+      <c r="B12" s="215"/>
+      <c r="C12" s="217"/>
       <c r="D12" s="4" t="s">
         <v>88</v>
       </c>
@@ -17788,9 +17865,9 @@
       <c r="J12" s="156" t="s">
         <v>444</v>
       </c>
-      <c r="K12" s="227"/>
-      <c r="L12" s="228"/>
-      <c r="M12" s="221"/>
+      <c r="K12" s="208"/>
+      <c r="L12" s="209"/>
+      <c r="M12" s="201"/>
     </row>
     <row r="13" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B13" s="2"/>
@@ -17804,8 +17881,8 @@
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
-      <c r="K13" s="241"/>
-      <c r="L13" s="199"/>
+      <c r="K13" s="247"/>
+      <c r="L13" s="211"/>
       <c r="M13" s="10"/>
     </row>
     <row r="14" spans="2:13" ht="57" customHeight="1" x14ac:dyDescent="0.15">
@@ -17813,22 +17890,22 @@
         <f>MAX(B$11:B13)+1</f>
         <v>1</v>
       </c>
-      <c r="C14" s="222" t="s">
+      <c r="C14" s="202" t="s">
         <v>85</v>
       </c>
-      <c r="D14" s="210" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="210"/>
-      <c r="F14" s="210"/>
-      <c r="G14" s="210"/>
-      <c r="H14" s="210"/>
-      <c r="I14" s="210"/>
-      <c r="J14" s="210"/>
-      <c r="K14" s="192" t="s">
+      <c r="D14" s="203" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="203"/>
+      <c r="F14" s="203"/>
+      <c r="G14" s="203"/>
+      <c r="H14" s="203"/>
+      <c r="I14" s="203"/>
+      <c r="J14" s="203"/>
+      <c r="K14" s="212" t="s">
         <v>180</v>
       </c>
-      <c r="L14" s="195"/>
+      <c r="L14" s="213"/>
       <c r="M14" s="16" t="s">
         <v>241</v>
       </c>
@@ -17838,18 +17915,18 @@
         <f>MAX(B$11:B14)+1</f>
         <v>2</v>
       </c>
-      <c r="C15" s="218"/>
-      <c r="D15" s="223"/>
-      <c r="E15" s="223"/>
-      <c r="F15" s="223"/>
-      <c r="G15" s="223"/>
-      <c r="H15" s="223"/>
-      <c r="I15" s="223"/>
-      <c r="J15" s="223"/>
-      <c r="K15" s="192" t="s">
+      <c r="C15" s="198"/>
+      <c r="D15" s="204"/>
+      <c r="E15" s="204"/>
+      <c r="F15" s="204"/>
+      <c r="G15" s="204"/>
+      <c r="H15" s="204"/>
+      <c r="I15" s="204"/>
+      <c r="J15" s="204"/>
+      <c r="K15" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="L15" s="195"/>
+      <c r="L15" s="213"/>
       <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -17857,18 +17934,18 @@
         <f>MAX(B$11:B15)+1</f>
         <v>3</v>
       </c>
-      <c r="C16" s="219"/>
-      <c r="D16" s="224"/>
-      <c r="E16" s="224"/>
-      <c r="F16" s="224"/>
-      <c r="G16" s="224"/>
-      <c r="H16" s="224"/>
-      <c r="I16" s="224"/>
-      <c r="J16" s="224"/>
-      <c r="K16" s="192" t="s">
+      <c r="C16" s="199"/>
+      <c r="D16" s="205"/>
+      <c r="E16" s="205"/>
+      <c r="F16" s="205"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="205"/>
+      <c r="J16" s="205"/>
+      <c r="K16" s="212" t="s">
         <v>181</v>
       </c>
-      <c r="L16" s="195"/>
+      <c r="L16" s="213"/>
       <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -17883,8 +17960,8 @@
       <c r="H17" s="7"/>
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
-      <c r="K17" s="241"/>
-      <c r="L17" s="199"/>
+      <c r="K17" s="247"/>
+      <c r="L17" s="211"/>
       <c r="M17" s="8"/>
     </row>
     <row r="18" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -17904,10 +17981,10 @@
       <c r="H18" s="24"/>
       <c r="I18" s="24"/>
       <c r="J18" s="25"/>
-      <c r="K18" s="245" t="s">
+      <c r="K18" s="240" t="s">
         <v>229</v>
       </c>
-      <c r="L18" s="195"/>
+      <c r="L18" s="213"/>
       <c r="M18" s="27" t="s">
         <v>363</v>
       </c>
@@ -17924,8 +18001,8 @@
       <c r="H19" s="7"/>
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
-      <c r="K19" s="241"/>
-      <c r="L19" s="199"/>
+      <c r="K19" s="247"/>
+      <c r="L19" s="211"/>
       <c r="M19" s="8"/>
     </row>
     <row r="20" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -17945,10 +18022,10 @@
       <c r="H20" s="24"/>
       <c r="I20" s="24"/>
       <c r="J20" s="25"/>
-      <c r="K20" s="245" t="s">
+      <c r="K20" s="240" t="s">
         <v>254</v>
       </c>
-      <c r="L20" s="195"/>
+      <c r="L20" s="213"/>
       <c r="M20" s="27" t="s">
         <v>373</v>
       </c>
@@ -17970,10 +18047,10 @@
       <c r="H21" s="24"/>
       <c r="I21" s="24"/>
       <c r="J21" s="25"/>
-      <c r="K21" s="245" t="s">
+      <c r="K21" s="240" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="195"/>
+      <c r="L21" s="213"/>
       <c r="M21" s="27"/>
     </row>
     <row r="22" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -17988,8 +18065,8 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
-      <c r="K22" s="241"/>
-      <c r="L22" s="199"/>
+      <c r="K22" s="247"/>
+      <c r="L22" s="211"/>
       <c r="M22" s="8"/>
     </row>
     <row r="23" spans="2:13" ht="189" x14ac:dyDescent="0.15">
@@ -18009,10 +18086,10 @@
       <c r="H23" s="24"/>
       <c r="I23" s="24"/>
       <c r="J23" s="25"/>
-      <c r="K23" s="245" t="s">
+      <c r="K23" s="240" t="s">
         <v>255</v>
       </c>
-      <c r="L23" s="195"/>
+      <c r="L23" s="213"/>
       <c r="M23" s="143" t="s">
         <v>265</v>
       </c>
@@ -18034,10 +18111,10 @@
       <c r="H24" s="24"/>
       <c r="I24" s="24"/>
       <c r="J24" s="25"/>
-      <c r="K24" s="245" t="s">
+      <c r="K24" s="240" t="s">
         <v>256</v>
       </c>
-      <c r="L24" s="193"/>
+      <c r="L24" s="226"/>
       <c r="M24" s="143" t="s">
         <v>364</v>
       </c>
@@ -18059,10 +18136,10 @@
       <c r="H25" s="24"/>
       <c r="I25" s="24"/>
       <c r="J25" s="25"/>
-      <c r="K25" s="245" t="s">
+      <c r="K25" s="240" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="193"/>
+      <c r="L25" s="226"/>
       <c r="M25" s="143"/>
     </row>
     <row r="26" spans="2:13" ht="45" customHeight="1" x14ac:dyDescent="0.15">
@@ -18082,10 +18159,10 @@
       <c r="H26" s="122"/>
       <c r="I26" s="122"/>
       <c r="J26" s="25"/>
-      <c r="K26" s="192" t="s">
+      <c r="K26" s="212" t="s">
         <v>232</v>
       </c>
-      <c r="L26" s="195"/>
+      <c r="L26" s="213"/>
       <c r="M26" s="143" t="s">
         <v>365</v>
       </c>
@@ -18095,22 +18172,22 @@
         <f>MAX(B$11:B26)+1</f>
         <v>11</v>
       </c>
-      <c r="C27" s="222" t="s">
+      <c r="C27" s="202" t="s">
         <v>105</v>
       </c>
-      <c r="D27" s="210" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="210"/>
-      <c r="F27" s="210"/>
-      <c r="G27" s="210"/>
-      <c r="H27" s="210"/>
-      <c r="I27" s="210"/>
-      <c r="J27" s="210"/>
-      <c r="K27" s="245" t="s">
+      <c r="D27" s="203" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="203"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="203"/>
+      <c r="H27" s="203"/>
+      <c r="I27" s="203"/>
+      <c r="J27" s="203"/>
+      <c r="K27" s="240" t="s">
         <v>257</v>
       </c>
-      <c r="L27" s="193"/>
+      <c r="L27" s="226"/>
       <c r="M27" s="143"/>
     </row>
     <row r="28" spans="2:13" ht="94.5" x14ac:dyDescent="0.15">
@@ -18118,18 +18195,18 @@
         <f>MAX(B$11:B27)+1</f>
         <v>12</v>
       </c>
-      <c r="C28" s="218"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="245" t="s">
+      <c r="C28" s="198"/>
+      <c r="D28" s="204"/>
+      <c r="E28" s="204"/>
+      <c r="F28" s="204"/>
+      <c r="G28" s="204"/>
+      <c r="H28" s="204"/>
+      <c r="I28" s="204"/>
+      <c r="J28" s="204"/>
+      <c r="K28" s="240" t="s">
         <v>258</v>
       </c>
-      <c r="L28" s="193"/>
+      <c r="L28" s="226"/>
       <c r="M28" s="143" t="s">
         <v>366</v>
       </c>
@@ -18146,8 +18223,8 @@
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
-      <c r="K29" s="241"/>
-      <c r="L29" s="199"/>
+      <c r="K29" s="247"/>
+      <c r="L29" s="211"/>
       <c r="M29" s="8"/>
     </row>
     <row r="30" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -18167,10 +18244,10 @@
       <c r="H30" s="24"/>
       <c r="I30" s="24"/>
       <c r="J30" s="25"/>
-      <c r="K30" s="245" t="s">
+      <c r="K30" s="240" t="s">
         <v>374</v>
       </c>
-      <c r="L30" s="195"/>
+      <c r="L30" s="213"/>
       <c r="M30" s="27"/>
     </row>
     <row r="31" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -18190,10 +18267,10 @@
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="25"/>
-      <c r="K31" s="245" t="s">
+      <c r="K31" s="240" t="s">
         <v>375</v>
       </c>
-      <c r="L31" s="195"/>
+      <c r="L31" s="213"/>
       <c r="M31" s="27"/>
     </row>
     <row r="32" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -18213,10 +18290,10 @@
       <c r="H32" s="24"/>
       <c r="I32" s="24"/>
       <c r="J32" s="25"/>
-      <c r="K32" s="245" t="s">
+      <c r="K32" s="240" t="s">
         <v>376</v>
       </c>
-      <c r="L32" s="195"/>
+      <c r="L32" s="213"/>
       <c r="M32" s="27"/>
     </row>
     <row r="33" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -18231,8 +18308,8 @@
       <c r="H33" s="7"/>
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
-      <c r="K33" s="241"/>
-      <c r="L33" s="199"/>
+      <c r="K33" s="247"/>
+      <c r="L33" s="211"/>
       <c r="M33" s="8"/>
     </row>
     <row r="34" spans="2:13" ht="78" customHeight="1" x14ac:dyDescent="0.15">
@@ -18252,10 +18329,10 @@
       <c r="H34" s="35"/>
       <c r="I34" s="35"/>
       <c r="J34" s="34"/>
-      <c r="K34" s="245" t="s">
+      <c r="K34" s="240" t="s">
         <v>337</v>
       </c>
-      <c r="L34" s="195"/>
+      <c r="L34" s="213"/>
       <c r="M34" s="29" t="s">
         <v>336</v>
       </c>
@@ -18277,10 +18354,10 @@
       <c r="H35" s="35"/>
       <c r="I35" s="35"/>
       <c r="J35" s="34"/>
-      <c r="K35" s="245" t="s">
+      <c r="K35" s="240" t="s">
         <v>338</v>
       </c>
-      <c r="L35" s="195"/>
+      <c r="L35" s="213"/>
       <c r="M35" s="29"/>
     </row>
     <row r="36" spans="2:13" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18300,10 +18377,10 @@
       <c r="H36" s="35"/>
       <c r="I36" s="35"/>
       <c r="J36" s="34"/>
-      <c r="K36" s="246" t="s">
+      <c r="K36" s="248" t="s">
         <v>339</v>
       </c>
-      <c r="L36" s="247"/>
+      <c r="L36" s="249"/>
       <c r="M36" s="29"/>
     </row>
     <row r="37" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
@@ -18318,8 +18395,8 @@
       <c r="H37" s="7"/>
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
-      <c r="K37" s="241"/>
-      <c r="L37" s="199"/>
+      <c r="K37" s="247"/>
+      <c r="L37" s="211"/>
       <c r="M37" s="8"/>
     </row>
     <row r="38" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.15">
@@ -18339,10 +18416,10 @@
       <c r="H38" s="28"/>
       <c r="I38" s="24"/>
       <c r="J38" s="25"/>
-      <c r="K38" s="245" t="s">
+      <c r="K38" s="240" t="s">
         <v>335</v>
       </c>
-      <c r="L38" s="195"/>
+      <c r="L38" s="213"/>
       <c r="M38" s="123" t="s">
         <v>239</v>
       </c>
@@ -18364,10 +18441,10 @@
       <c r="H39" s="28"/>
       <c r="I39" s="24"/>
       <c r="J39" s="25"/>
-      <c r="K39" s="192" t="s">
+      <c r="K39" s="212" t="s">
         <v>278</v>
       </c>
-      <c r="L39" s="193"/>
+      <c r="L39" s="226"/>
       <c r="M39" s="29"/>
     </row>
     <row r="40" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -18387,10 +18464,10 @@
       <c r="H40" s="28"/>
       <c r="I40" s="24"/>
       <c r="J40" s="25"/>
-      <c r="K40" s="192" t="s">
+      <c r="K40" s="212" t="s">
         <v>279</v>
       </c>
-      <c r="L40" s="193"/>
+      <c r="L40" s="226"/>
       <c r="M40" s="29"/>
     </row>
     <row r="41" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
@@ -18410,10 +18487,10 @@
       <c r="H41" s="28"/>
       <c r="I41" s="24"/>
       <c r="J41" s="25"/>
-      <c r="K41" s="245" t="s">
+      <c r="K41" s="240" t="s">
         <v>378</v>
       </c>
-      <c r="L41" s="266"/>
+      <c r="L41" s="273"/>
       <c r="M41" s="29"/>
     </row>
     <row r="42" spans="2:13" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -18433,10 +18510,10 @@
       <c r="H42" s="28"/>
       <c r="I42" s="24"/>
       <c r="J42" s="25"/>
-      <c r="K42" s="245" t="s">
+      <c r="K42" s="240" t="s">
         <v>379</v>
       </c>
-      <c r="L42" s="266"/>
+      <c r="L42" s="273"/>
       <c r="M42" s="29"/>
     </row>
     <row r="43" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -18456,10 +18533,10 @@
       <c r="H43" s="28"/>
       <c r="I43" s="28"/>
       <c r="J43" s="25"/>
-      <c r="K43" s="192" t="s">
+      <c r="K43" s="212" t="s">
         <v>289</v>
       </c>
-      <c r="L43" s="193"/>
+      <c r="L43" s="226"/>
       <c r="M43" s="29"/>
     </row>
     <row r="44" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -18479,10 +18556,10 @@
       <c r="H44" s="28"/>
       <c r="I44" s="28"/>
       <c r="J44" s="25"/>
-      <c r="K44" s="192" t="s">
+      <c r="K44" s="212" t="s">
         <v>290</v>
       </c>
-      <c r="L44" s="193"/>
+      <c r="L44" s="226"/>
       <c r="M44" s="29"/>
     </row>
     <row r="45" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -18502,10 +18579,10 @@
       <c r="H45" s="28"/>
       <c r="I45" s="28"/>
       <c r="J45" s="25"/>
-      <c r="K45" s="192" t="s">
+      <c r="K45" s="212" t="s">
         <v>291</v>
       </c>
-      <c r="L45" s="193"/>
+      <c r="L45" s="226"/>
       <c r="M45" s="29"/>
     </row>
     <row r="46" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18525,10 +18602,10 @@
       <c r="H46" s="45"/>
       <c r="I46" s="25"/>
       <c r="J46" s="34"/>
-      <c r="K46" s="230" t="s">
+      <c r="K46" s="236" t="s">
         <v>280</v>
       </c>
-      <c r="L46" s="193"/>
+      <c r="L46" s="226"/>
       <c r="M46" s="46"/>
     </row>
     <row r="47" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18548,10 +18625,10 @@
       <c r="H47" s="25"/>
       <c r="I47" s="25"/>
       <c r="J47" s="157"/>
-      <c r="K47" s="230" t="s">
+      <c r="K47" s="236" t="s">
         <v>281</v>
       </c>
-      <c r="L47" s="193"/>
+      <c r="L47" s="226"/>
       <c r="M47" s="46"/>
     </row>
     <row r="48" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18571,10 +18648,10 @@
       <c r="H48" s="25"/>
       <c r="I48" s="25"/>
       <c r="J48" s="157"/>
-      <c r="K48" s="230" t="s">
+      <c r="K48" s="236" t="s">
         <v>282</v>
       </c>
-      <c r="L48" s="193"/>
+      <c r="L48" s="226"/>
       <c r="M48" s="46"/>
     </row>
     <row r="49" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18594,10 +18671,10 @@
       <c r="H49" s="25"/>
       <c r="I49" s="25"/>
       <c r="J49" s="157"/>
-      <c r="K49" s="230" t="s">
+      <c r="K49" s="236" t="s">
         <v>283</v>
       </c>
-      <c r="L49" s="193"/>
+      <c r="L49" s="226"/>
       <c r="M49" s="46"/>
     </row>
     <row r="50" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18617,10 +18694,10 @@
       </c>
       <c r="I50" s="25"/>
       <c r="J50" s="157"/>
-      <c r="K50" s="230" t="s">
+      <c r="K50" s="236" t="s">
         <v>284</v>
       </c>
-      <c r="L50" s="193"/>
+      <c r="L50" s="226"/>
       <c r="M50" s="46"/>
     </row>
     <row r="51" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18640,10 +18717,10 @@
         <v>3</v>
       </c>
       <c r="J51" s="157"/>
-      <c r="K51" s="230" t="s">
+      <c r="K51" s="236" t="s">
         <v>285</v>
       </c>
-      <c r="L51" s="193"/>
+      <c r="L51" s="226"/>
       <c r="M51" s="46"/>
     </row>
     <row r="52" spans="2:13" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
@@ -18663,10 +18740,10 @@
       <c r="J52" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="230" t="s">
+      <c r="K52" s="236" t="s">
         <v>448</v>
       </c>
-      <c r="L52" s="193"/>
+      <c r="L52" s="226"/>
       <c r="M52" s="46"/>
     </row>
     <row r="53" spans="2:13" ht="84" customHeight="1" x14ac:dyDescent="0.15">
@@ -18686,10 +18763,10 @@
       <c r="H53" s="28"/>
       <c r="I53" s="24"/>
       <c r="J53" s="25"/>
-      <c r="K53" s="192" t="s">
+      <c r="K53" s="212" t="s">
         <v>295</v>
       </c>
-      <c r="L53" s="193"/>
+      <c r="L53" s="226"/>
       <c r="M53" s="29" t="s">
         <v>292</v>
       </c>
@@ -18711,10 +18788,10 @@
       <c r="H54" s="28"/>
       <c r="I54" s="24"/>
       <c r="J54" s="25"/>
-      <c r="K54" s="192" t="s">
+      <c r="K54" s="212" t="s">
         <v>296</v>
       </c>
-      <c r="L54" s="193"/>
+      <c r="L54" s="226"/>
       <c r="M54" s="29" t="s">
         <v>293</v>
       </c>
@@ -18736,10 +18813,10 @@
       <c r="H55" s="33"/>
       <c r="I55" s="35"/>
       <c r="J55" s="34"/>
-      <c r="K55" s="192" t="s">
+      <c r="K55" s="212" t="s">
         <v>297</v>
       </c>
-      <c r="L55" s="193"/>
+      <c r="L55" s="226"/>
       <c r="M55" s="29" t="s">
         <v>294</v>
       </c>
@@ -18756,16 +18833,16 @@
       <c r="H56" s="7"/>
       <c r="I56" s="7"/>
       <c r="J56" s="7"/>
-      <c r="K56" s="241"/>
-      <c r="L56" s="199"/>
+      <c r="K56" s="247"/>
+      <c r="L56" s="211"/>
       <c r="M56" s="8"/>
     </row>
     <row r="57" spans="2:13" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="204">
+      <c r="B57" s="220">
         <f>MAX(B$11:B56)+1</f>
         <v>37</v>
       </c>
-      <c r="C57" s="256" t="s">
+      <c r="C57" s="261" t="s">
         <v>152</v>
       </c>
       <c r="D57" s="150"/>
@@ -18775,15 +18852,15 @@
       <c r="H57" s="150"/>
       <c r="I57" s="150"/>
       <c r="J57" s="150"/>
-      <c r="K57" s="192" t="s">
+      <c r="K57" s="212" t="s">
         <v>347</v>
       </c>
-      <c r="L57" s="195"/>
-      <c r="M57" s="201"/>
+      <c r="L57" s="213"/>
+      <c r="M57" s="227"/>
     </row>
     <row r="58" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B58" s="205"/>
-      <c r="C58" s="257"/>
+      <c r="B58" s="221"/>
+      <c r="C58" s="262"/>
       <c r="D58" s="149"/>
       <c r="E58" s="149"/>
       <c r="F58" s="149"/>
@@ -18797,11 +18874,11 @@
       <c r="L58" s="82" t="s">
         <v>185</v>
       </c>
-      <c r="M58" s="202"/>
+      <c r="M58" s="228"/>
     </row>
     <row r="59" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B59" s="205"/>
-      <c r="C59" s="257"/>
+      <c r="B59" s="221"/>
+      <c r="C59" s="262"/>
       <c r="D59" s="33" t="s">
         <v>3</v>
       </c>
@@ -18817,11 +18894,11 @@
       <c r="L59" s="87" t="s">
         <v>270</v>
       </c>
-      <c r="M59" s="202"/>
+      <c r="M59" s="228"/>
     </row>
     <row r="60" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="205"/>
-      <c r="C60" s="257"/>
+      <c r="B60" s="221"/>
+      <c r="C60" s="262"/>
       <c r="D60" s="33" t="s">
         <v>3</v>
       </c>
@@ -18837,11 +18914,11 @@
       <c r="L60" s="88" t="s">
         <v>381</v>
       </c>
-      <c r="M60" s="202"/>
+      <c r="M60" s="228"/>
     </row>
     <row r="61" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="205"/>
-      <c r="C61" s="257"/>
+      <c r="B61" s="221"/>
+      <c r="C61" s="262"/>
       <c r="D61" s="33" t="s">
         <v>3</v>
       </c>
@@ -18857,11 +18934,11 @@
       <c r="L61" s="87" t="s">
         <v>271</v>
       </c>
-      <c r="M61" s="202"/>
+      <c r="M61" s="228"/>
     </row>
     <row r="62" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B62" s="205"/>
-      <c r="C62" s="257"/>
+      <c r="B62" s="221"/>
+      <c r="C62" s="262"/>
       <c r="D62" s="33" t="s">
         <v>3</v>
       </c>
@@ -18877,11 +18954,11 @@
       <c r="L62" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="M62" s="202"/>
+      <c r="M62" s="228"/>
     </row>
     <row r="63" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B63" s="205"/>
-      <c r="C63" s="257"/>
+      <c r="B63" s="221"/>
+      <c r="C63" s="262"/>
       <c r="D63" s="33" t="s">
         <v>3</v>
       </c>
@@ -18897,11 +18974,11 @@
       <c r="L63" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="M63" s="202"/>
+      <c r="M63" s="228"/>
     </row>
     <row r="64" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B64" s="205"/>
-      <c r="C64" s="257"/>
+      <c r="B64" s="221"/>
+      <c r="C64" s="262"/>
       <c r="D64" s="33" t="s">
         <v>3</v>
       </c>
@@ -18917,11 +18994,11 @@
       <c r="L64" s="87" t="s">
         <v>274</v>
       </c>
-      <c r="M64" s="202"/>
+      <c r="M64" s="228"/>
     </row>
     <row r="65" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="205"/>
-      <c r="C65" s="257"/>
+      <c r="B65" s="221"/>
+      <c r="C65" s="262"/>
       <c r="D65" s="33" t="s">
         <v>3</v>
       </c>
@@ -18937,11 +19014,11 @@
       <c r="L65" s="87" t="s">
         <v>275</v>
       </c>
-      <c r="M65" s="202"/>
+      <c r="M65" s="228"/>
     </row>
     <row r="66" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="205"/>
-      <c r="C66" s="257"/>
+      <c r="B66" s="221"/>
+      <c r="C66" s="262"/>
       <c r="D66" s="33" t="s">
         <v>3</v>
       </c>
@@ -18957,11 +19034,11 @@
       <c r="L66" s="87" t="s">
         <v>276</v>
       </c>
-      <c r="M66" s="202"/>
+      <c r="M66" s="228"/>
     </row>
     <row r="67" spans="2:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B67" s="205"/>
-      <c r="C67" s="257"/>
+      <c r="B67" s="221"/>
+      <c r="C67" s="262"/>
       <c r="D67" s="33" t="s">
         <v>3</v>
       </c>
@@ -18977,11 +19054,11 @@
       <c r="L67" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="M67" s="202"/>
+      <c r="M67" s="228"/>
     </row>
     <row r="68" spans="2:13" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B68" s="206"/>
-      <c r="C68" s="268"/>
+      <c r="B68" s="222"/>
+      <c r="C68" s="269"/>
       <c r="D68" s="151"/>
       <c r="E68" s="151"/>
       <c r="F68" s="151"/>
@@ -18989,9 +19066,9 @@
       <c r="H68" s="151"/>
       <c r="I68" s="151"/>
       <c r="J68" s="151"/>
-      <c r="K68" s="192"/>
-      <c r="L68" s="195"/>
-      <c r="M68" s="203"/>
+      <c r="K68" s="212"/>
+      <c r="L68" s="213"/>
+      <c r="M68" s="229"/>
     </row>
     <row r="69" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B69" s="1"/>
@@ -19005,8 +19082,8 @@
       <c r="H69" s="7"/>
       <c r="I69" s="7"/>
       <c r="J69" s="7"/>
-      <c r="K69" s="241"/>
-      <c r="L69" s="199"/>
+      <c r="K69" s="247"/>
+      <c r="L69" s="211"/>
       <c r="M69" s="8"/>
     </row>
     <row r="70" spans="2:13" ht="102.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19026,10 +19103,10 @@
       <c r="H70" s="28"/>
       <c r="I70" s="24"/>
       <c r="J70" s="25"/>
-      <c r="K70" s="245" t="s">
+      <c r="K70" s="240" t="s">
         <v>404</v>
       </c>
-      <c r="L70" s="195"/>
+      <c r="L70" s="213"/>
       <c r="M70" s="29"/>
     </row>
     <row r="71" spans="2:13" ht="290.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19049,10 +19126,10 @@
       <c r="H71" s="125"/>
       <c r="I71" s="125"/>
       <c r="J71" s="25"/>
-      <c r="K71" s="245" t="s">
+      <c r="K71" s="240" t="s">
         <v>313</v>
       </c>
-      <c r="L71" s="195"/>
+      <c r="L71" s="213"/>
       <c r="M71" s="29" t="s">
         <v>346</v>
       </c>
@@ -19074,10 +19151,10 @@
       <c r="H72" s="28"/>
       <c r="I72" s="67"/>
       <c r="J72" s="25"/>
-      <c r="K72" s="245" t="s">
+      <c r="K72" s="240" t="s">
         <v>314</v>
       </c>
-      <c r="L72" s="193"/>
+      <c r="L72" s="226"/>
       <c r="M72" s="29"/>
     </row>
     <row r="73" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -19097,10 +19174,10 @@
       <c r="H73" s="33"/>
       <c r="I73" s="35"/>
       <c r="J73" s="34"/>
-      <c r="K73" s="245" t="s">
+      <c r="K73" s="240" t="s">
         <v>315</v>
       </c>
-      <c r="L73" s="193"/>
+      <c r="L73" s="226"/>
       <c r="M73" s="29"/>
     </row>
     <row r="74" spans="2:13" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19120,10 +19197,10 @@
       <c r="H74" s="125"/>
       <c r="I74" s="125"/>
       <c r="J74" s="25"/>
-      <c r="K74" s="245" t="s">
+      <c r="K74" s="240" t="s">
         <v>345</v>
       </c>
-      <c r="L74" s="193"/>
+      <c r="L74" s="226"/>
       <c r="M74" s="29"/>
     </row>
     <row r="75" spans="2:13" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
@@ -19143,27 +19220,27 @@
       <c r="H75" s="33"/>
       <c r="I75" s="35"/>
       <c r="J75" s="34"/>
-      <c r="K75" s="245" t="s">
+      <c r="K75" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="L75" s="193"/>
+      <c r="L75" s="226"/>
       <c r="M75" s="29"/>
     </row>
     <row r="76" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B76" s="1"/>
-      <c r="C76" s="263" t="s">
+      <c r="C76" s="274" t="s">
         <v>137</v>
       </c>
-      <c r="D76" s="264"/>
-      <c r="E76" s="264"/>
-      <c r="F76" s="264"/>
-      <c r="G76" s="264"/>
-      <c r="H76" s="264"/>
-      <c r="I76" s="264"/>
-      <c r="J76" s="264"/>
-      <c r="K76" s="264"/>
-      <c r="L76" s="264"/>
-      <c r="M76" s="265"/>
+      <c r="D76" s="275"/>
+      <c r="E76" s="275"/>
+      <c r="F76" s="275"/>
+      <c r="G76" s="275"/>
+      <c r="H76" s="275"/>
+      <c r="I76" s="275"/>
+      <c r="J76" s="275"/>
+      <c r="K76" s="275"/>
+      <c r="L76" s="275"/>
+      <c r="M76" s="276"/>
     </row>
     <row r="77" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B77" s="1">
@@ -19182,10 +19259,10 @@
       <c r="H77" s="33"/>
       <c r="I77" s="35"/>
       <c r="J77" s="34"/>
-      <c r="K77" s="271" t="s">
+      <c r="K77" s="272" t="s">
         <v>391</v>
       </c>
-      <c r="L77" s="195"/>
+      <c r="L77" s="213"/>
       <c r="M77" s="146" t="s">
         <v>394</v>
       </c>
@@ -19207,10 +19284,10 @@
       <c r="H78" s="24"/>
       <c r="I78" s="25"/>
       <c r="J78" s="157"/>
-      <c r="K78" s="245" t="s">
+      <c r="K78" s="240" t="s">
         <v>392</v>
       </c>
-      <c r="L78" s="195"/>
+      <c r="L78" s="213"/>
       <c r="M78" s="29"/>
     </row>
     <row r="79" spans="2:13" ht="72" customHeight="1" x14ac:dyDescent="0.15">
@@ -19230,10 +19307,10 @@
       <c r="H79" s="47"/>
       <c r="I79" s="25"/>
       <c r="J79" s="157"/>
-      <c r="K79" s="245" t="s">
+      <c r="K79" s="240" t="s">
         <v>395</v>
       </c>
-      <c r="L79" s="195"/>
+      <c r="L79" s="213"/>
       <c r="M79" s="29"/>
     </row>
     <row r="80" spans="2:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19253,10 +19330,10 @@
       </c>
       <c r="I80" s="34"/>
       <c r="J80" s="157"/>
-      <c r="K80" s="245" t="s">
+      <c r="K80" s="240" t="s">
         <v>396</v>
       </c>
-      <c r="L80" s="195"/>
+      <c r="L80" s="213"/>
       <c r="M80" s="29"/>
     </row>
     <row r="81" spans="2:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19276,10 +19353,10 @@
       </c>
       <c r="I81" s="34"/>
       <c r="J81" s="157"/>
-      <c r="K81" s="245" t="s">
+      <c r="K81" s="240" t="s">
         <v>397</v>
       </c>
-      <c r="L81" s="195"/>
+      <c r="L81" s="213"/>
       <c r="M81" s="49"/>
     </row>
     <row r="82" spans="2:13" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -19299,27 +19376,27 @@
         <v>3</v>
       </c>
       <c r="J82" s="157"/>
-      <c r="K82" s="245" t="s">
+      <c r="K82" s="240" t="s">
         <v>398</v>
       </c>
-      <c r="L82" s="195"/>
+      <c r="L82" s="213"/>
       <c r="M82" s="29"/>
     </row>
     <row r="83" spans="2:13" ht="18.75" x14ac:dyDescent="0.15">
       <c r="B83" s="1"/>
-      <c r="C83" s="263" t="s">
+      <c r="C83" s="274" t="s">
         <v>141</v>
       </c>
-      <c r="D83" s="264"/>
-      <c r="E83" s="264"/>
-      <c r="F83" s="264"/>
-      <c r="G83" s="264"/>
-      <c r="H83" s="264"/>
-      <c r="I83" s="264"/>
-      <c r="J83" s="264"/>
-      <c r="K83" s="264"/>
-      <c r="L83" s="264"/>
-      <c r="M83" s="265"/>
+      <c r="D83" s="275"/>
+      <c r="E83" s="275"/>
+      <c r="F83" s="275"/>
+      <c r="G83" s="275"/>
+      <c r="H83" s="275"/>
+      <c r="I83" s="275"/>
+      <c r="J83" s="275"/>
+      <c r="K83" s="275"/>
+      <c r="L83" s="275"/>
+      <c r="M83" s="276"/>
     </row>
     <row r="84" spans="2:13" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B84" s="1">
@@ -19338,10 +19415,10 @@
       <c r="H84" s="28"/>
       <c r="I84" s="24"/>
       <c r="J84" s="25"/>
-      <c r="K84" s="230" t="s">
+      <c r="K84" s="236" t="s">
         <v>399</v>
       </c>
-      <c r="L84" s="269"/>
+      <c r="L84" s="270"/>
       <c r="M84" s="29"/>
     </row>
     <row r="85" spans="2:13" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -19361,10 +19438,10 @@
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
       <c r="J85" s="34"/>
-      <c r="K85" s="192" t="s">
+      <c r="K85" s="212" t="s">
         <v>403</v>
       </c>
-      <c r="L85" s="270"/>
+      <c r="L85" s="271"/>
       <c r="M85" s="29"/>
     </row>
     <row r="86" spans="2:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -19384,10 +19461,10 @@
       <c r="H86" s="35"/>
       <c r="I86" s="35"/>
       <c r="J86" s="34"/>
-      <c r="K86" s="271" t="s">
+      <c r="K86" s="272" t="s">
         <v>400</v>
       </c>
-      <c r="L86" s="270"/>
+      <c r="L86" s="271"/>
       <c r="M86" s="29" t="s">
         <v>401</v>
       </c>
@@ -19409,15 +19486,90 @@
       <c r="H87" s="35"/>
       <c r="I87" s="35"/>
       <c r="J87" s="34"/>
-      <c r="K87" s="267" t="s">
+      <c r="K87" s="268" t="s">
         <v>402</v>
       </c>
-      <c r="L87" s="193"/>
+      <c r="L87" s="226"/>
       <c r="M87" s="29"/>
     </row>
   </sheetData>
   <autoFilter ref="B12:M87"/>
   <mergeCells count="91">
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:J11"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="H14:H16"/>
+    <mergeCell ref="I14:I16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K11:L12"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="K16:L16"/>
+    <mergeCell ref="C83:M83"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="C76:M76"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="K33:L33"/>
+    <mergeCell ref="K34:L34"/>
+    <mergeCell ref="K37:L37"/>
+    <mergeCell ref="K38:L38"/>
+    <mergeCell ref="K39:L39"/>
+    <mergeCell ref="K40:L40"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="K82:L82"/>
+    <mergeCell ref="K47:L47"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K49:L49"/>
+    <mergeCell ref="K50:L50"/>
+    <mergeCell ref="K75:L75"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="K57:L57"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K48:L48"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="K46:L46"/>
+    <mergeCell ref="K41:L41"/>
+    <mergeCell ref="K42:L42"/>
+    <mergeCell ref="K43:L43"/>
+    <mergeCell ref="K44:L44"/>
+    <mergeCell ref="K45:L45"/>
+    <mergeCell ref="K35:L35"/>
+    <mergeCell ref="K36:L36"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K53:L53"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K55:L55"/>
+    <mergeCell ref="K71:L71"/>
+    <mergeCell ref="K74:L74"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="M57:M68"/>
     <mergeCell ref="K68:L68"/>
@@ -19434,81 +19586,6 @@
     <mergeCell ref="K79:L79"/>
     <mergeCell ref="K72:L72"/>
     <mergeCell ref="K73:L73"/>
-    <mergeCell ref="K53:L53"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K55:L55"/>
-    <mergeCell ref="K71:L71"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K48:L48"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="K46:L46"/>
-    <mergeCell ref="K41:L41"/>
-    <mergeCell ref="K42:L42"/>
-    <mergeCell ref="K43:L43"/>
-    <mergeCell ref="K44:L44"/>
-    <mergeCell ref="K45:L45"/>
-    <mergeCell ref="K35:L35"/>
-    <mergeCell ref="K36:L36"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K82:L82"/>
-    <mergeCell ref="K47:L47"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K49:L49"/>
-    <mergeCell ref="K50:L50"/>
-    <mergeCell ref="K75:L75"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="K57:L57"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="K51:L51"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="C83:M83"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="C76:M76"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K32:L32"/>
-    <mergeCell ref="K33:L33"/>
-    <mergeCell ref="K34:L34"/>
-    <mergeCell ref="K37:L37"/>
-    <mergeCell ref="K38:L38"/>
-    <mergeCell ref="K39:L39"/>
-    <mergeCell ref="K40:L40"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="H14:H16"/>
-    <mergeCell ref="I14:I16"/>
-    <mergeCell ref="J14:J16"/>
-    <mergeCell ref="K11:L12"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="K15:L15"/>
-    <mergeCell ref="K16:L16"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:J11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
